--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1692017.9304795</v>
+        <v>1687678.918412761</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22012922.25143359</v>
+        <v>22012922.25143361</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7098937.042053144</v>
+        <v>7098937.042053142</v>
       </c>
     </row>
     <row r="9">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>158.8618572253442</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.4928495206937</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>271.9455549281398</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H12" t="n">
-        <v>59.73653548534392</v>
+        <v>59.73653548534391</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222338</v>
       </c>
       <c r="T12" t="n">
         <v>153.4484244137338</v>
       </c>
       <c r="U12" t="n">
-        <v>195.307117430621</v>
+        <v>195.3071174306203</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1530,7 +1530,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -1539,16 +1539,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>41.16116705487668</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H13" t="n">
         <v>140.1594986563935</v>
       </c>
       <c r="I13" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S13" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T13" t="n">
-        <v>176.9360116564416</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>70.35168698799181</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>334.2399212153821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H15" t="n">
-        <v>59.73653548534392</v>
+        <v>59.73653548534391</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>87.09445372222319</v>
       </c>
       <c r="T15" t="n">
-        <v>153.4484244137341</v>
+        <v>153.4484244137338</v>
       </c>
       <c r="U15" t="n">
         <v>195.3071174306206</v>
@@ -1767,25 +1767,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>111.4739723625918</v>
       </c>
       <c r="E16" t="n">
-        <v>149.7784626037636</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T16" t="n">
         <v>233.3317950548276</v>
@@ -1830,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.49083806056894</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.4928495206937</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>211.2562336341194</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>76.05643770007197</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H18" t="n">
-        <v>59.73653548534392</v>
+        <v>59.73653548534391</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>87.09445372222319</v>
       </c>
       <c r="T18" t="n">
-        <v>153.4484244137337</v>
+        <v>153.4484244137338</v>
       </c>
       <c r="U18" t="n">
         <v>195.3071174306208</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H19" t="n">
-        <v>122.546210884746</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I19" t="n">
         <v>88.28603573286843</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>134.3291953836318</v>
       </c>
       <c r="T19" t="n">
         <v>233.3317950548276</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2067,7 +2067,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>24.66166015930922</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>347.168897441952</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H21" t="n">
-        <v>59.73653548534392</v>
+        <v>59.73653548534391</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>87.09445372222319</v>
       </c>
       <c r="T21" t="n">
-        <v>153.4484244137338</v>
+        <v>153.4484244137337</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3071174306206</v>
+        <v>195.3071174306208</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -2241,7 +2241,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>96.03562155858414</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>7.308333166702143</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>233.3317950548276</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>332.6938631693635</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>402.6471267764352</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>8.619398793447942</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>25.50701239244709</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H24" t="n">
-        <v>59.73653548534392</v>
+        <v>59.73653548534391</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -2493,10 +2493,10 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H25" t="n">
-        <v>22.25790485374829</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.9411860548871</v>
+        <v>145.0821824761968</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9213814272745</v>
@@ -2538,7 +2538,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>53.93361668149138</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2569,7 +2569,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>310.7083527467599</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H26" t="n">
         <v>287.3796452813201</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H27" t="n">
-        <v>59.73653548534392</v>
+        <v>59.73653548534391</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2727,13 +2727,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H28" t="n">
         <v>140.1594986563935</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>168.9411860548871</v>
       </c>
       <c r="T28" t="n">
-        <v>223.9784556270679</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>180.6302810240757</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>347.0129392227856</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2800,19 +2800,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>140.7744938875626</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H30" t="n">
-        <v>59.73653548534392</v>
+        <v>59.73653548534391</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>15.86028077036317</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.20525872441497</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.9411860548871</v>
@@ -3012,7 +3012,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>261.1154194544597</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>312.9640545552002</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>287.3796452813201</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>88.4928495206937</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>225.7074875125457</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3125,7 +3125,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H33" t="n">
-        <v>59.73653548534392</v>
+        <v>59.73653548534391</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>15.86028077036227</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>164.6835037092309</v>
@@ -3243,7 +3243,7 @@
         <v>233.3317950548276</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9213814272745</v>
+        <v>132.7968475671231</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3274,19 +3274,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>390.9752199833184</v>
+        <v>239.3555090698055</v>
       </c>
       <c r="H35" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>88.4928495206937</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H36" t="n">
-        <v>59.73653548534392</v>
+        <v>59.73653548534391</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>153.4484244137338</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3071174306203</v>
+        <v>195.3071174306206</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3410,7 +3410,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>174.5627220424961</v>
+        <v>174.5627220424965</v>
       </c>
       <c r="Y36" t="n">
         <v>157.8079400398083</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>15.42515776157104</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.6835037092309</v>
       </c>
       <c r="H37" t="n">
-        <v>140.1594986563935</v>
+        <v>12.00726817137186</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.20525872441497</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>208.3509097654848</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>287.3796452813201</v>
+        <v>196.7728833710452</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H39" t="n">
-        <v>59.73653548534392</v>
+        <v>59.73653548534391</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>153.4484244137338</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3071174306203</v>
+        <v>195.3071174306206</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>36.51885551767197</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9845743121392</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>164.6835037092309</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.20525872441497</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T40" t="n">
         <v>233.3317950548276</v>
@@ -3723,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>162.013310731512</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>285.1353069816529</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3830,13 +3830,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>107.8702810193207</v>
       </c>
       <c r="G42" t="n">
         <v>104.8533946561527</v>
       </c>
       <c r="H42" t="n">
-        <v>59.73653548534392</v>
+        <v>59.73653548534391</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>87.09445372222319</v>
       </c>
       <c r="T42" t="n">
-        <v>153.4484244137337</v>
+        <v>153.4484244137338</v>
       </c>
       <c r="U42" t="n">
-        <v>195.307117430621</v>
+        <v>195.3071174306206</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>164.6835037092309</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.20525872441497</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S43" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>233.3317950548276</v>
       </c>
       <c r="U43" t="n">
-        <v>90.0953765405787</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>3.355084617824903</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>343.6263021425077</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>402.6471267764352</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>46.35010204552803</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H45" t="n">
-        <v>59.73653548534392</v>
+        <v>59.73653548534391</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>182.8228725991005</v>
       </c>
       <c r="C46" t="n">
-        <v>127.403067781006</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>855.1972056900578</v>
+        <v>1433.28381897063</v>
       </c>
       <c r="C11" t="n">
-        <v>445.0726150033279</v>
+        <v>1433.28381897063</v>
       </c>
       <c r="D11" t="n">
-        <v>40.60868509638841</v>
+        <v>1028.81988906369</v>
       </c>
       <c r="E11" t="n">
-        <v>40.60868509638841</v>
+        <v>1028.81988906369</v>
       </c>
       <c r="F11" t="n">
-        <v>40.60868509638841</v>
+        <v>607.7894770173777</v>
       </c>
       <c r="G11" t="n">
-        <v>40.60868509638841</v>
+        <v>201.075207546231</v>
       </c>
       <c r="H11" t="n">
         <v>40.60868509638841</v>
@@ -5041,52 +5041,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J11" t="n">
-        <v>135.5536585935969</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K11" t="n">
-        <v>298.4006618101654</v>
+        <v>705.9280359432659</v>
       </c>
       <c r="L11" t="n">
-        <v>515.3719827698309</v>
+        <v>922.8993569029313</v>
       </c>
       <c r="M11" t="n">
-        <v>769.6205054001886</v>
+        <v>1177.147879533289</v>
       </c>
       <c r="N11" t="n">
-        <v>1029.85162732878</v>
+        <v>1437.37900146188</v>
       </c>
       <c r="O11" t="n">
-        <v>1270.179715674899</v>
+        <v>1677.707089808</v>
       </c>
       <c r="P11" t="n">
-        <v>1461.321273543602</v>
+        <v>1868.848647676702</v>
       </c>
       <c r="Q11" t="n">
-        <v>1865.882367902809</v>
+        <v>1992.87803497895</v>
       </c>
       <c r="R11" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S11" t="n">
-        <v>1941.047538131851</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T11" t="n">
-        <v>1941.047538131851</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="U11" t="n">
-        <v>1941.047538131851</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="V11" t="n">
-        <v>1941.047538131851</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="W11" t="n">
-        <v>1941.047538131851</v>
+        <v>1433.28381897063</v>
       </c>
       <c r="X11" t="n">
-        <v>1666.355058406457</v>
+        <v>1433.28381897063</v>
       </c>
       <c r="Y11" t="n">
-        <v>1265.418385354547</v>
+        <v>1433.28381897063</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>687.2060646415979</v>
+        <v>687.2060646415983</v>
       </c>
       <c r="C12" t="n">
-        <v>553.2109933905436</v>
+        <v>553.210993390544</v>
       </c>
       <c r="D12" t="n">
-        <v>436.3138356099362</v>
+        <v>436.3138356099364</v>
       </c>
       <c r="E12" t="n">
-        <v>315.8210196022642</v>
+        <v>315.8210196022644</v>
       </c>
       <c r="F12" t="n">
-        <v>206.8611397847688</v>
+        <v>206.861139784769</v>
       </c>
       <c r="G12" t="n">
         <v>100.9486199300691</v>
@@ -5120,19 +5120,19 @@
         <v>56.63600629456043</v>
       </c>
       <c r="J12" t="n">
-        <v>349.2317580283647</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K12" t="n">
-        <v>851.7642360961713</v>
+        <v>464.5090923956754</v>
       </c>
       <c r="L12" t="n">
-        <v>1081.89778437295</v>
+        <v>638.2743237270165</v>
       </c>
       <c r="M12" t="n">
-        <v>1292.513144969923</v>
+        <v>848.8896843239895</v>
       </c>
       <c r="N12" t="n">
-        <v>1514.538368647211</v>
+        <v>1206.116577040381</v>
       </c>
       <c r="O12" t="n">
         <v>1708.649055108187</v>
@@ -5141,7 +5141,7 @@
         <v>1856.610102265005</v>
       </c>
       <c r="Q12" t="n">
-        <v>1935.300869346253</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R12" t="n">
         <v>2030.43425481942</v>
@@ -5153,7 +5153,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U12" t="n">
-        <v>1590.181734045099</v>
+        <v>1590.1817340451</v>
       </c>
       <c r="V12" t="n">
         <v>1376.470207038133</v>
@@ -5162,10 +5162,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X12" t="n">
-        <v>986.9110569133545</v>
+        <v>986.911056913355</v>
       </c>
       <c r="Y12" t="n">
-        <v>827.5090972771845</v>
+        <v>827.509097277185</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>756.3983358342261</v>
+        <v>881.6066783742517</v>
       </c>
       <c r="C13" t="n">
-        <v>756.3983358342261</v>
+        <v>710.5133059359682</v>
       </c>
       <c r="D13" t="n">
-        <v>596.9036911571362</v>
+        <v>551.0186612588782</v>
       </c>
       <c r="E13" t="n">
-        <v>435.9928760254557</v>
+        <v>390.1078461271977</v>
       </c>
       <c r="F13" t="n">
-        <v>271.361750136047</v>
+        <v>348.5309097081303</v>
       </c>
       <c r="G13" t="n">
-        <v>271.361750136047</v>
+        <v>182.1839362644627</v>
       </c>
       <c r="H13" t="n">
-        <v>129.7864989679727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I13" t="n">
         <v>40.60868509638841</v>
@@ -5205,46 +5205,46 @@
         <v>374.7161282877416</v>
       </c>
       <c r="L13" t="n">
-        <v>766.2539516990519</v>
+        <v>609.7854668739133</v>
       </c>
       <c r="M13" t="n">
-        <v>903.2226851976782</v>
+        <v>1037.846208464959</v>
       </c>
       <c r="N13" t="n">
-        <v>1319.557877795446</v>
+        <v>1454.181401062727</v>
       </c>
       <c r="O13" t="n">
-        <v>1704.271353674364</v>
+        <v>1838.894876941645</v>
       </c>
       <c r="P13" t="n">
-        <v>2017.036691229721</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q13" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R13" t="n">
-        <v>2030.43425481942</v>
+        <v>1985.782478330112</v>
       </c>
       <c r="S13" t="n">
-        <v>1859.786592137716</v>
+        <v>1815.134815648408</v>
       </c>
       <c r="T13" t="n">
-        <v>1681.063348040301</v>
+        <v>1815.134815648408</v>
       </c>
       <c r="U13" t="n">
-        <v>1681.063348040301</v>
+        <v>1532.385945519848</v>
       </c>
       <c r="V13" t="n">
-        <v>1407.177602979822</v>
+        <v>1532.385945519848</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.177602979822</v>
+        <v>1532.385945519848</v>
       </c>
       <c r="X13" t="n">
-        <v>1168.833740839506</v>
+        <v>1294.042083379531</v>
       </c>
       <c r="Y13" t="n">
-        <v>944.0980422282705</v>
+        <v>1069.306384768296</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1692.818172783681</v>
+        <v>1174.968246034661</v>
       </c>
       <c r="C14" t="n">
-        <v>1282.693582096951</v>
+        <v>1174.968246034661</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.693582096951</v>
+        <v>1174.968246034661</v>
       </c>
       <c r="E14" t="n">
-        <v>868.3533666138476</v>
+        <v>760.6280305515575</v>
       </c>
       <c r="F14" t="n">
-        <v>447.3229545675351</v>
+        <v>339.597618505245</v>
       </c>
       <c r="G14" t="n">
-        <v>40.60868509638841</v>
+        <v>339.597618505245</v>
       </c>
       <c r="H14" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I14" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J14" t="n">
-        <v>416.0853656505568</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K14" t="n">
-        <v>578.9323688671252</v>
+        <v>625.1764886978946</v>
       </c>
       <c r="L14" t="n">
-        <v>795.9036898267907</v>
+        <v>842.1478096575601</v>
       </c>
       <c r="M14" t="n">
-        <v>1050.152212457148</v>
+        <v>1096.396332287918</v>
       </c>
       <c r="N14" t="n">
-        <v>1310.383334385739</v>
+        <v>1356.627454216509</v>
       </c>
       <c r="O14" t="n">
-        <v>1550.711422731859</v>
+        <v>1596.955542562628</v>
       </c>
       <c r="P14" t="n">
-        <v>1741.852980600561</v>
+        <v>1788.097100431331</v>
       </c>
       <c r="Q14" t="n">
-        <v>1865.882367902809</v>
+        <v>1912.126487733579</v>
       </c>
       <c r="R14" t="n">
         <v>2030.43425481942</v>
@@ -5308,22 +5308,22 @@
         <v>2030.43425481942</v>
       </c>
       <c r="T14" t="n">
-        <v>2030.43425481942</v>
+        <v>1959.37194473054</v>
       </c>
       <c r="U14" t="n">
-        <v>2030.43425481942</v>
+        <v>1959.37194473054</v>
       </c>
       <c r="V14" t="n">
-        <v>2030.43425481942</v>
+        <v>1959.37194473054</v>
       </c>
       <c r="W14" t="n">
-        <v>2030.43425481942</v>
+        <v>1575.611643865708</v>
       </c>
       <c r="X14" t="n">
-        <v>2030.43425481942</v>
+        <v>1174.968246034661</v>
       </c>
       <c r="Y14" t="n">
-        <v>1692.818172783681</v>
+        <v>1174.968246034661</v>
       </c>
     </row>
     <row r="15">
@@ -5357,13 +5357,13 @@
         <v>56.63600629456043</v>
       </c>
       <c r="J15" t="n">
-        <v>349.2317580283647</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K15" t="n">
-        <v>464.5090923956753</v>
+        <v>502.1623960378346</v>
       </c>
       <c r="L15" t="n">
-        <v>675.9276273691759</v>
+        <v>675.9276273691758</v>
       </c>
       <c r="M15" t="n">
         <v>886.5429879661488</v>
@@ -5378,7 +5378,7 @@
         <v>1450.639945261231</v>
       </c>
       <c r="Q15" t="n">
-        <v>1935.300869346253</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R15" t="n">
         <v>2030.43425481942</v>
@@ -5390,7 +5390,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U15" t="n">
-        <v>1590.181734045099</v>
+        <v>1590.1817340451</v>
       </c>
       <c r="V15" t="n">
         <v>1376.470207038133</v>
@@ -5399,10 +5399,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X15" t="n">
-        <v>986.9110569133546</v>
+        <v>986.911056913355</v>
       </c>
       <c r="Y15" t="n">
-        <v>827.5090972771847</v>
+        <v>827.509097277185</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>582.147771180575</v>
+        <v>649.8439706391872</v>
       </c>
       <c r="C16" t="n">
-        <v>582.147771180575</v>
+        <v>478.7505982009037</v>
       </c>
       <c r="D16" t="n">
-        <v>422.653126503485</v>
+        <v>366.1506261174777</v>
       </c>
       <c r="E16" t="n">
-        <v>271.361750136047</v>
+        <v>205.2398109857971</v>
       </c>
       <c r="F16" t="n">
-        <v>271.361750136047</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="G16" t="n">
-        <v>271.361750136047</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H16" t="n">
-        <v>129.7864989679727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I16" t="n">
         <v>40.60868509638841</v>
@@ -5439,22 +5439,22 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K16" t="n">
-        <v>344.5216036684404</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L16" t="n">
-        <v>736.0594270797505</v>
+        <v>766.2539516990519</v>
       </c>
       <c r="M16" t="n">
-        <v>1164.120168670796</v>
+        <v>1108.983026439427</v>
       </c>
       <c r="N16" t="n">
-        <v>1580.455361268564</v>
+        <v>1193.283917589609</v>
       </c>
       <c r="O16" t="n">
-        <v>1965.168837147482</v>
+        <v>1577.997393468527</v>
       </c>
       <c r="P16" t="n">
-        <v>2017.036691229721</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q16" t="n">
         <v>2030.43425481942</v>
@@ -5463,25 +5463,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S16" t="n">
-        <v>2030.43425481942</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T16" t="n">
-        <v>1794.745572945857</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U16" t="n">
-        <v>1511.996702817297</v>
+        <v>1341.349040135593</v>
       </c>
       <c r="V16" t="n">
-        <v>1511.996702817297</v>
+        <v>1341.349040135593</v>
       </c>
       <c r="W16" t="n">
-        <v>1232.927038326171</v>
+        <v>1062.279375644467</v>
       </c>
       <c r="X16" t="n">
-        <v>994.5831761858547</v>
+        <v>1062.279375644467</v>
       </c>
       <c r="Y16" t="n">
-        <v>769.8474775746193</v>
+        <v>837.5436770332316</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1727.657403147892</v>
+        <v>749.7222091919749</v>
       </c>
       <c r="C17" t="n">
-        <v>1317.532812461162</v>
+        <v>339.597618505245</v>
       </c>
       <c r="D17" t="n">
-        <v>1317.532812461162</v>
+        <v>339.597618505245</v>
       </c>
       <c r="E17" t="n">
-        <v>903.1925969780586</v>
+        <v>339.597618505245</v>
       </c>
       <c r="F17" t="n">
-        <v>482.1621849317462</v>
+        <v>339.597618505245</v>
       </c>
       <c r="G17" t="n">
-        <v>75.44791546059946</v>
+        <v>339.597618505245</v>
       </c>
       <c r="H17" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I17" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J17" t="n">
-        <v>416.0853656505568</v>
+        <v>135.553658593597</v>
       </c>
       <c r="K17" t="n">
-        <v>578.9323688671252</v>
+        <v>298.4006618101654</v>
       </c>
       <c r="L17" t="n">
-        <v>795.9036898267907</v>
+        <v>533.6993001051034</v>
       </c>
       <c r="M17" t="n">
-        <v>1050.152212457148</v>
+        <v>787.9478227354612</v>
       </c>
       <c r="N17" t="n">
-        <v>1310.383334385739</v>
+        <v>1048.178944664052</v>
       </c>
       <c r="O17" t="n">
         <v>1550.711422731859</v>
@@ -5542,25 +5542,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S17" t="n">
-        <v>1941.047538131851</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T17" t="n">
-        <v>1727.657403147892</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="U17" t="n">
-        <v>1727.657403147892</v>
+        <v>1560.144749265853</v>
       </c>
       <c r="V17" t="n">
-        <v>1727.657403147892</v>
+        <v>1210.307194602334</v>
       </c>
       <c r="W17" t="n">
-        <v>1727.657403147892</v>
+        <v>826.5468937375022</v>
       </c>
       <c r="X17" t="n">
-        <v>1727.657403147892</v>
+        <v>749.7222091919749</v>
       </c>
       <c r="Y17" t="n">
-        <v>1727.657403147892</v>
+        <v>749.7222091919749</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>687.2060646415983</v>
+        <v>687.206064641598</v>
       </c>
       <c r="C18" t="n">
-        <v>553.210993390544</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D18" t="n">
-        <v>436.3138356099364</v>
+        <v>436.3138356099362</v>
       </c>
       <c r="E18" t="n">
-        <v>315.8210196022644</v>
+        <v>315.8210196022642</v>
       </c>
       <c r="F18" t="n">
-        <v>206.861139784769</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G18" t="n">
         <v>100.9486199300691</v>
@@ -5594,13 +5594,13 @@
         <v>56.63600629456043</v>
       </c>
       <c r="J18" t="n">
-        <v>349.2317580283647</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K18" t="n">
-        <v>502.1623960378348</v>
+        <v>502.1623960378346</v>
       </c>
       <c r="L18" t="n">
-        <v>675.9276273691759</v>
+        <v>675.9276273691758</v>
       </c>
       <c r="M18" t="n">
         <v>886.5429879661488</v>
@@ -5615,7 +5615,7 @@
         <v>1450.639945261231</v>
       </c>
       <c r="Q18" t="n">
-        <v>1935.300869346253</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R18" t="n">
         <v>2030.43425481942</v>
@@ -5627,19 +5627,19 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U18" t="n">
-        <v>1590.1817340451</v>
+        <v>1590.181734045099</v>
       </c>
       <c r="V18" t="n">
-        <v>1376.470207038134</v>
+        <v>1376.470207038133</v>
       </c>
       <c r="W18" t="n">
         <v>1163.237038774462</v>
       </c>
       <c r="X18" t="n">
-        <v>986.911056913355</v>
+        <v>986.9110569133546</v>
       </c>
       <c r="Y18" t="n">
-        <v>827.509097277185</v>
+        <v>827.5090972771847</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>591.0108962486571</v>
+        <v>598.6195387113951</v>
       </c>
       <c r="C19" t="n">
-        <v>419.9175238103736</v>
+        <v>598.6195387113951</v>
       </c>
       <c r="D19" t="n">
-        <v>419.9175238103736</v>
+        <v>598.6195387113951</v>
       </c>
       <c r="E19" t="n">
-        <v>419.9175238103736</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="F19" t="n">
-        <v>419.9175238103736</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="G19" t="n">
-        <v>253.570550366706</v>
+        <v>271.361750136047</v>
       </c>
       <c r="H19" t="n">
         <v>129.7864989679727</v>
@@ -5676,22 +5676,22 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K19" t="n">
-        <v>218.2476434626033</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L19" t="n">
-        <v>609.7854668739135</v>
+        <v>766.2539516990519</v>
       </c>
       <c r="M19" t="n">
-        <v>1037.846208464959</v>
+        <v>1164.120168670796</v>
       </c>
       <c r="N19" t="n">
-        <v>1454.181401062727</v>
+        <v>1580.455361268564</v>
       </c>
       <c r="O19" t="n">
-        <v>1838.894876941645</v>
+        <v>1965.168837147482</v>
       </c>
       <c r="P19" t="n">
-        <v>1890.762731023884</v>
+        <v>2017.036691229721</v>
       </c>
       <c r="Q19" t="n">
         <v>2030.43425481942</v>
@@ -5700,25 +5700,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S19" t="n">
-        <v>2030.43425481942</v>
+        <v>1894.748198876358</v>
       </c>
       <c r="T19" t="n">
-        <v>1794.745572945857</v>
+        <v>1659.059517002794</v>
       </c>
       <c r="U19" t="n">
-        <v>1794.745572945857</v>
+        <v>1376.310646874234</v>
       </c>
       <c r="V19" t="n">
-        <v>1520.859827885379</v>
+        <v>1102.424901813756</v>
       </c>
       <c r="W19" t="n">
-        <v>1241.790163394253</v>
+        <v>823.3552373226304</v>
       </c>
       <c r="X19" t="n">
-        <v>1003.446301253937</v>
+        <v>823.3552373226304</v>
       </c>
       <c r="Y19" t="n">
-        <v>778.7106026427015</v>
+        <v>598.6195387113951</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1269.537421173161</v>
+        <v>470.345560570426</v>
       </c>
       <c r="C20" t="n">
-        <v>859.4128304864312</v>
+        <v>470.345560570426</v>
       </c>
       <c r="D20" t="n">
-        <v>454.9489005794917</v>
+        <v>470.345560570426</v>
       </c>
       <c r="E20" t="n">
-        <v>40.60868509638841</v>
+        <v>470.345560570426</v>
       </c>
       <c r="F20" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="G20" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="H20" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I20" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J20" t="n">
-        <v>416.0853656505566</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K20" t="n">
-        <v>578.932368867125</v>
+        <v>625.1764886978946</v>
       </c>
       <c r="L20" t="n">
-        <v>795.9036898267905</v>
+        <v>842.1478096575601</v>
       </c>
       <c r="M20" t="n">
-        <v>1050.152212457148</v>
+        <v>1096.396332287918</v>
       </c>
       <c r="N20" t="n">
-        <v>1310.383334385739</v>
+        <v>1356.627454216509</v>
       </c>
       <c r="O20" t="n">
-        <v>1550.711422731859</v>
+        <v>1596.955542562628</v>
       </c>
       <c r="P20" t="n">
-        <v>1741.852980600561</v>
+        <v>1788.097100431331</v>
       </c>
       <c r="Q20" t="n">
-        <v>1865.882367902809</v>
+        <v>1992.87803497895</v>
       </c>
       <c r="R20" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S20" t="n">
-        <v>2030.43425481942</v>
+        <v>2005.523486981734</v>
       </c>
       <c r="T20" t="n">
-        <v>2030.43425481942</v>
+        <v>2005.523486981734</v>
       </c>
       <c r="U20" t="n">
-        <v>2030.43425481942</v>
+        <v>2005.523486981734</v>
       </c>
       <c r="V20" t="n">
-        <v>2030.43425481942</v>
+        <v>1655.685932318215</v>
       </c>
       <c r="W20" t="n">
-        <v>2030.43425481942</v>
+        <v>1271.925631453383</v>
       </c>
       <c r="X20" t="n">
-        <v>2030.43425481942</v>
+        <v>871.282233622336</v>
       </c>
       <c r="Y20" t="n">
-        <v>1679.75860083765</v>
+        <v>470.345560570426</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>687.2060646415979</v>
+        <v>687.206064641598</v>
       </c>
       <c r="C21" t="n">
         <v>553.2109933905436</v>
@@ -5819,7 +5819,7 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F21" t="n">
-        <v>206.8611397847687</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G21" t="n">
         <v>100.9486199300691</v>
@@ -5831,28 +5831,28 @@
         <v>56.63600629456043</v>
       </c>
       <c r="J21" t="n">
-        <v>105.5633540537315</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K21" t="n">
-        <v>590.1321125148162</v>
+        <v>851.7642360961713</v>
       </c>
       <c r="L21" t="n">
-        <v>763.8973438461572</v>
+        <v>1025.529467427512</v>
       </c>
       <c r="M21" t="n">
-        <v>974.5127044431301</v>
+        <v>1236.144828024485</v>
       </c>
       <c r="N21" t="n">
-        <v>1196.537928120418</v>
+        <v>1458.170051701773</v>
       </c>
       <c r="O21" t="n">
-        <v>1390.648614581395</v>
+        <v>1652.28073816275</v>
       </c>
       <c r="P21" t="n">
-        <v>1538.609661738212</v>
+        <v>1856.610102265005</v>
       </c>
       <c r="Q21" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R21" t="n">
         <v>2030.43425481942</v>
@@ -5876,7 +5876,7 @@
         <v>986.9110569133545</v>
       </c>
       <c r="Y21" t="n">
-        <v>827.5090972771845</v>
+        <v>827.5090972771847</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>137.6143634383926</v>
+        <v>308.2620261200967</v>
       </c>
       <c r="C22" t="n">
-        <v>40.60868509638841</v>
+        <v>137.1686536818132</v>
       </c>
       <c r="D22" t="n">
-        <v>40.60868509638841</v>
+        <v>137.1686536818132</v>
       </c>
       <c r="E22" t="n">
-        <v>40.60868509638841</v>
+        <v>137.1686536818132</v>
       </c>
       <c r="F22" t="n">
-        <v>40.60868509638841</v>
+        <v>137.1686536818132</v>
       </c>
       <c r="G22" t="n">
-        <v>40.60868509638841</v>
+        <v>137.1686536818132</v>
       </c>
       <c r="H22" t="n">
-        <v>40.60868509638841</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="I22" t="n">
         <v>40.60868509638841</v>
@@ -5913,19 +5913,19 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K22" t="n">
-        <v>168.4359347020275</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L22" t="n">
-        <v>559.9737581133377</v>
+        <v>766.2539516990519</v>
       </c>
       <c r="M22" t="n">
-        <v>988.0344997043835</v>
+        <v>1194.314693290098</v>
       </c>
       <c r="N22" t="n">
-        <v>1404.369692302151</v>
+        <v>1278.61558444028</v>
       </c>
       <c r="O22" t="n">
-        <v>1789.08316818107</v>
+        <v>1577.997393468527</v>
       </c>
       <c r="P22" t="n">
         <v>1890.762731023884</v>
@@ -5937,25 +5937,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S22" t="n">
-        <v>1859.786592137716</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T22" t="n">
-        <v>1624.097910264153</v>
+        <v>1794.745572945857</v>
       </c>
       <c r="U22" t="n">
-        <v>1341.349040135593</v>
+        <v>1511.996702817297</v>
       </c>
       <c r="V22" t="n">
-        <v>1067.463295075115</v>
+        <v>1238.110957756819</v>
       </c>
       <c r="W22" t="n">
-        <v>788.3936305839889</v>
+        <v>959.041293265693</v>
       </c>
       <c r="X22" t="n">
-        <v>550.0497684436723</v>
+        <v>720.6974311253764</v>
       </c>
       <c r="Y22" t="n">
-        <v>325.314069832437</v>
+        <v>495.9617325141411</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1279.135611411343</v>
+        <v>2046.096716275601</v>
       </c>
       <c r="C23" t="n">
-        <v>869.0110207246132</v>
+        <v>1635.972125588871</v>
       </c>
       <c r="D23" t="n">
-        <v>464.5470908176737</v>
+        <v>1299.917718347089</v>
       </c>
       <c r="E23" t="n">
-        <v>464.5470908176737</v>
+        <v>885.5775028639862</v>
       </c>
       <c r="F23" t="n">
         <v>464.5470908176737</v>
@@ -5986,28 +5986,28 @@
         <v>57.83282134652699</v>
       </c>
       <c r="I23" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="J23" t="n">
-        <v>470.8471583037394</v>
+        <v>144.0713314160104</v>
       </c>
       <c r="K23" t="n">
-        <v>633.6941615203078</v>
+        <v>306.9183346325789</v>
       </c>
       <c r="L23" t="n">
-        <v>850.6654824799733</v>
+        <v>523.8896555922444</v>
       </c>
       <c r="M23" t="n">
-        <v>1104.914005110331</v>
+        <v>778.1381782226022</v>
       </c>
       <c r="N23" t="n">
-        <v>1712.852684355503</v>
+        <v>1325.972502355957</v>
       </c>
       <c r="O23" t="n">
-        <v>1953.180772701623</v>
+        <v>1566.300590702076</v>
       </c>
       <c r="P23" t="n">
-        <v>2144.322330570325</v>
+        <v>1757.442148570778</v>
       </c>
       <c r="Q23" t="n">
         <v>2291.766009023479</v>
@@ -6025,16 +6025,16 @@
         <v>2456.31789594009</v>
       </c>
       <c r="V23" t="n">
-        <v>2106.48034127657</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="W23" t="n">
-        <v>2080.715682294301</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="X23" t="n">
-        <v>1680.072284463253</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="Y23" t="n">
-        <v>1279.135611411343</v>
+        <v>2456.31789594009</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>109.4662927524825</v>
       </c>
       <c r="H24" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I24" t="n">
-        <v>49.12635791880179</v>
+        <v>65.15367911697383</v>
       </c>
       <c r="J24" t="n">
-        <v>341.722109652606</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K24" t="n">
-        <v>598.649785337229</v>
+        <v>510.6800688602474</v>
       </c>
       <c r="L24" t="n">
-        <v>772.41501666857</v>
+        <v>684.4453001915886</v>
       </c>
       <c r="M24" t="n">
-        <v>983.0303772655429</v>
+        <v>895.0606607885616</v>
       </c>
       <c r="N24" t="n">
-        <v>1205.055600942831</v>
+        <v>1117.085884465849</v>
       </c>
       <c r="O24" t="n">
-        <v>1399.166287403808</v>
+        <v>1311.196570926826</v>
       </c>
       <c r="P24" t="n">
-        <v>1547.127334560625</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q24" t="n">
-        <v>2031.788258645647</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R24" t="n">
         <v>2038.951927641833</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>563.498004559062</v>
+        <v>1102.356354538591</v>
       </c>
       <c r="C25" t="n">
-        <v>563.498004559062</v>
+        <v>931.2629821003072</v>
       </c>
       <c r="D25" t="n">
-        <v>563.498004559062</v>
+        <v>771.7683374232172</v>
       </c>
       <c r="E25" t="n">
-        <v>402.5871894273815</v>
+        <v>610.8575222915367</v>
       </c>
       <c r="F25" t="n">
-        <v>237.9560635379727</v>
+        <v>446.226396402128</v>
       </c>
       <c r="G25" t="n">
-        <v>71.60909009430512</v>
+        <v>279.8794229584604</v>
       </c>
       <c r="H25" t="n">
-        <v>49.12635791880179</v>
+        <v>138.3041717903861</v>
       </c>
       <c r="I25" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="J25" t="n">
-        <v>125.8094884535054</v>
+        <v>125.8094884535053</v>
       </c>
       <c r="K25" t="n">
-        <v>383.2338011101551</v>
+        <v>383.233801110155</v>
       </c>
       <c r="L25" t="n">
         <v>774.7716245214654</v>
@@ -6165,7 +6165,7 @@
         <v>2003.881034589197</v>
       </c>
       <c r="P25" t="n">
-        <v>2316.646372144553</v>
+        <v>2316.646372144554</v>
       </c>
       <c r="Q25" t="n">
         <v>2456.31789594009</v>
@@ -6174,25 +6174,25 @@
         <v>2456.31789594009</v>
       </c>
       <c r="S25" t="n">
-        <v>2285.670233258385</v>
+        <v>2309.770236873225</v>
       </c>
       <c r="T25" t="n">
-        <v>2049.981551384822</v>
+        <v>2309.770236873225</v>
       </c>
       <c r="U25" t="n">
-        <v>1767.232681256262</v>
+        <v>2027.021366744665</v>
       </c>
       <c r="V25" t="n">
-        <v>1493.346936195784</v>
+        <v>1753.135621684187</v>
       </c>
       <c r="W25" t="n">
-        <v>1214.277271704658</v>
+        <v>1753.135621684187</v>
       </c>
       <c r="X25" t="n">
-        <v>975.9334095643417</v>
+        <v>1514.79175954387</v>
       </c>
       <c r="Y25" t="n">
-        <v>751.1977109531064</v>
+        <v>1290.056060932635</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1893.090206292612</v>
+        <v>2046.096716275601</v>
       </c>
       <c r="C26" t="n">
-        <v>1893.090206292612</v>
+        <v>1635.972125588871</v>
       </c>
       <c r="D26" t="n">
-        <v>1488.626276385672</v>
+        <v>1581.493724900496</v>
       </c>
       <c r="E26" t="n">
-        <v>1074.286060902569</v>
+        <v>1167.153509417392</v>
       </c>
       <c r="F26" t="n">
-        <v>653.2556488562564</v>
+        <v>746.12309737108</v>
       </c>
       <c r="G26" t="n">
-        <v>339.4088278999332</v>
+        <v>339.4088278999333</v>
       </c>
       <c r="H26" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I26" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="J26" t="n">
-        <v>144.0713314160103</v>
+        <v>470.8471583037395</v>
       </c>
       <c r="K26" t="n">
-        <v>306.9183346325788</v>
+        <v>633.6941615203079</v>
       </c>
       <c r="L26" t="n">
-        <v>914.857013877751</v>
+        <v>850.6654824799734</v>
       </c>
       <c r="M26" t="n">
-        <v>1169.105536508109</v>
+        <v>1104.914005110331</v>
       </c>
       <c r="N26" t="n">
-        <v>1777.044215753281</v>
+        <v>1365.145127038922</v>
       </c>
       <c r="O26" t="n">
-        <v>2017.372304099401</v>
+        <v>1605.473215385042</v>
       </c>
       <c r="P26" t="n">
-        <v>2208.513861968103</v>
+        <v>1796.614773253744</v>
       </c>
       <c r="Q26" t="n">
-        <v>2332.543249270351</v>
+        <v>2291.766009023479</v>
       </c>
       <c r="R26" t="n">
         <v>2456.31789594009</v>
@@ -6256,22 +6256,22 @@
         <v>2456.31789594009</v>
       </c>
       <c r="T26" t="n">
-        <v>2242.927760956131</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="U26" t="n">
-        <v>2242.927760956131</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="V26" t="n">
-        <v>1893.090206292612</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="W26" t="n">
-        <v>1893.090206292612</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="X26" t="n">
-        <v>1893.090206292612</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="Y26" t="n">
-        <v>1893.090206292612</v>
+        <v>2456.31789594009</v>
       </c>
     </row>
     <row r="27">
@@ -6299,19 +6299,19 @@
         <v>109.4662927524825</v>
       </c>
       <c r="H27" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I27" t="n">
-        <v>49.12635791880179</v>
+        <v>65.15367911697383</v>
       </c>
       <c r="J27" t="n">
-        <v>341.722109652606</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K27" t="n">
-        <v>510.6800688602476</v>
+        <v>510.6800688602474</v>
       </c>
       <c r="L27" t="n">
-        <v>684.4453001915887</v>
+        <v>684.4453001915886</v>
       </c>
       <c r="M27" t="n">
         <v>895.0606607885616</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>846.8315672233389</v>
+        <v>942.8617098615007</v>
       </c>
       <c r="C28" t="n">
-        <v>675.7381947850554</v>
+        <v>771.7683374232172</v>
       </c>
       <c r="D28" t="n">
-        <v>516.2435501079653</v>
+        <v>771.7683374232172</v>
       </c>
       <c r="E28" t="n">
-        <v>355.3327349762848</v>
+        <v>610.8575222915367</v>
       </c>
       <c r="F28" t="n">
-        <v>190.7016090868761</v>
+        <v>446.226396402128</v>
       </c>
       <c r="G28" t="n">
-        <v>190.7016090868761</v>
+        <v>279.8794229584604</v>
       </c>
       <c r="H28" t="n">
-        <v>49.12635791880179</v>
+        <v>138.3041717903861</v>
       </c>
       <c r="I28" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="J28" t="n">
-        <v>125.8094884535053</v>
+        <v>125.8094884535055</v>
       </c>
       <c r="K28" t="n">
-        <v>383.233801110155</v>
+        <v>383.2338011101554</v>
       </c>
       <c r="L28" t="n">
-        <v>774.7716245214651</v>
+        <v>774.7716245214656</v>
       </c>
       <c r="M28" t="n">
         <v>1202.832366112511</v>
@@ -6414,22 +6414,22 @@
         <v>2285.670233258386</v>
       </c>
       <c r="T28" t="n">
-        <v>2059.429368988621</v>
+        <v>2049.981551384823</v>
       </c>
       <c r="U28" t="n">
-        <v>1776.680498860061</v>
+        <v>2049.981551384823</v>
       </c>
       <c r="V28" t="n">
-        <v>1776.680498860061</v>
+        <v>1776.095806324345</v>
       </c>
       <c r="W28" t="n">
-        <v>1497.610834368935</v>
+        <v>1593.640977007097</v>
       </c>
       <c r="X28" t="n">
-        <v>1259.266972228619</v>
+        <v>1355.29711486678</v>
       </c>
       <c r="Y28" t="n">
-        <v>1034.531273617383</v>
+        <v>1130.561416255545</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2105.799775513034</v>
+        <v>1162.703811921328</v>
       </c>
       <c r="C29" t="n">
-        <v>1695.675184826304</v>
+        <v>752.579221234598</v>
       </c>
       <c r="D29" t="n">
-        <v>1291.211254919364</v>
+        <v>348.1152913276584</v>
       </c>
       <c r="E29" t="n">
-        <v>876.871039436261</v>
+        <v>348.1152913276584</v>
       </c>
       <c r="F29" t="n">
-        <v>455.8406273899485</v>
+        <v>348.1152913276584</v>
       </c>
       <c r="G29" t="n">
-        <v>49.12635791880179</v>
+        <v>348.1152913276584</v>
       </c>
       <c r="H29" t="n">
-        <v>49.12635791880179</v>
+        <v>57.83282134652699</v>
       </c>
       <c r="I29" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="J29" t="n">
-        <v>470.8471583037394</v>
+        <v>451.0016484857192</v>
       </c>
       <c r="K29" t="n">
-        <v>633.6941615203078</v>
+        <v>613.8486517022877</v>
       </c>
       <c r="L29" t="n">
-        <v>850.6654824799733</v>
+        <v>1221.78733094746</v>
       </c>
       <c r="M29" t="n">
-        <v>1104.914005110331</v>
+        <v>1476.035853577818</v>
       </c>
       <c r="N29" t="n">
-        <v>1365.145127038922</v>
+        <v>1736.266975506409</v>
       </c>
       <c r="O29" t="n">
-        <v>1605.473215385042</v>
+        <v>1976.595063852528</v>
       </c>
       <c r="P29" t="n">
-        <v>1796.614773253744</v>
+        <v>2167.736621721231</v>
       </c>
       <c r="Q29" t="n">
         <v>2291.766009023479</v>
@@ -6496,19 +6496,19 @@
         <v>2456.31789594009</v>
       </c>
       <c r="U29" t="n">
-        <v>2456.31789594009</v>
+        <v>2314.121437467805</v>
       </c>
       <c r="V29" t="n">
-        <v>2456.31789594009</v>
+        <v>1964.283882804285</v>
       </c>
       <c r="W29" t="n">
-        <v>2456.31789594009</v>
+        <v>1964.283882804285</v>
       </c>
       <c r="X29" t="n">
-        <v>2456.31789594009</v>
+        <v>1563.640484973238</v>
       </c>
       <c r="Y29" t="n">
-        <v>2456.31789594009</v>
+        <v>1162.703811921328</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>109.4662927524825</v>
       </c>
       <c r="H30" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I30" t="n">
-        <v>49.12635791880179</v>
+        <v>65.15367911697383</v>
       </c>
       <c r="J30" t="n">
-        <v>341.722109652606</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K30" t="n">
-        <v>456.9994440199167</v>
+        <v>510.6800688602474</v>
       </c>
       <c r="L30" t="n">
-        <v>630.7646753512578</v>
+        <v>684.4453001915886</v>
       </c>
       <c r="M30" t="n">
-        <v>841.3800359482307</v>
+        <v>895.0606607885616</v>
       </c>
       <c r="N30" t="n">
-        <v>1063.405259625518</v>
+        <v>1117.085884465849</v>
       </c>
       <c r="O30" t="n">
-        <v>1671.343938870691</v>
+        <v>1311.196570926826</v>
       </c>
       <c r="P30" t="n">
-        <v>1819.304986027508</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q30" t="n">
         <v>1943.818542168665</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>534.162943616981</v>
+        <v>563.4980045590629</v>
       </c>
       <c r="C31" t="n">
-        <v>534.162943616981</v>
+        <v>392.4046321207794</v>
       </c>
       <c r="D31" t="n">
-        <v>374.6682989398911</v>
+        <v>392.4046321207794</v>
       </c>
       <c r="E31" t="n">
-        <v>213.7574838082105</v>
+        <v>231.4938169890989</v>
       </c>
       <c r="F31" t="n">
-        <v>49.12635791880179</v>
+        <v>215.4733313624694</v>
       </c>
       <c r="G31" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="H31" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I31" t="n">
-        <v>49.1263579188013</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="J31" t="n">
-        <v>125.8094884535048</v>
+        <v>125.8094884535054</v>
       </c>
       <c r="K31" t="n">
-        <v>383.2338011101545</v>
+        <v>383.2338011101551</v>
       </c>
       <c r="L31" t="n">
-        <v>774.7716245214647</v>
+        <v>774.7716245214654</v>
       </c>
       <c r="M31" t="n">
-        <v>1202.83236611251</v>
+        <v>1202.832366112511</v>
       </c>
       <c r="N31" t="n">
-        <v>1619.167558710278</v>
+        <v>1619.167558710279</v>
       </c>
       <c r="O31" t="n">
         <v>2003.881034589197</v>
       </c>
       <c r="P31" t="n">
-        <v>2316.646372144553</v>
+        <v>2316.646372144554</v>
       </c>
       <c r="Q31" t="n">
         <v>2456.31789594009</v>
       </c>
       <c r="R31" t="n">
-        <v>2411.666119450782</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S31" t="n">
-        <v>2241.018456769078</v>
+        <v>2285.670233258386</v>
       </c>
       <c r="T31" t="n">
-        <v>2005.329774895514</v>
+        <v>2049.981551384823</v>
       </c>
       <c r="U31" t="n">
-        <v>1722.580904766954</v>
+        <v>1767.232681256263</v>
       </c>
       <c r="V31" t="n">
-        <v>1448.695159706476</v>
+        <v>1493.346936195785</v>
       </c>
       <c r="W31" t="n">
-        <v>1184.942210762577</v>
+        <v>1214.277271704659</v>
       </c>
       <c r="X31" t="n">
-        <v>946.5983486222607</v>
+        <v>975.9334095643426</v>
       </c>
       <c r="Y31" t="n">
-        <v>721.8626500110254</v>
+        <v>751.1977109531073</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1174.779455429349</v>
+        <v>664.2405989591738</v>
       </c>
       <c r="C32" t="n">
-        <v>1174.779455429349</v>
+        <v>664.2405989591738</v>
       </c>
       <c r="D32" t="n">
-        <v>1174.779455429349</v>
+        <v>348.1152913276584</v>
       </c>
       <c r="E32" t="n">
-        <v>760.4392399462456</v>
+        <v>348.1152913276584</v>
       </c>
       <c r="F32" t="n">
-        <v>339.4088278999332</v>
+        <v>348.1152913276584</v>
       </c>
       <c r="G32" t="n">
-        <v>339.4088278999332</v>
+        <v>348.1152913276584</v>
       </c>
       <c r="H32" t="n">
-        <v>49.12635791880179</v>
+        <v>57.83282134652699</v>
       </c>
       <c r="I32" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="J32" t="n">
-        <v>144.0713314160103</v>
+        <v>470.8471583037395</v>
       </c>
       <c r="K32" t="n">
-        <v>306.9183346325788</v>
+        <v>633.6941615203079</v>
       </c>
       <c r="L32" t="n">
-        <v>914.857013877751</v>
+        <v>850.6654824799734</v>
       </c>
       <c r="M32" t="n">
-        <v>1169.105536508109</v>
+        <v>1104.914005110331</v>
       </c>
       <c r="N32" t="n">
-        <v>1429.3366584367</v>
+        <v>1365.145127038922</v>
       </c>
       <c r="O32" t="n">
-        <v>2037.275337681872</v>
+        <v>1605.473215385042</v>
       </c>
       <c r="P32" t="n">
-        <v>2228.416895550574</v>
+        <v>1796.614773253744</v>
       </c>
       <c r="Q32" t="n">
-        <v>2352.446282852822</v>
+        <v>2291.766009023479</v>
       </c>
       <c r="R32" t="n">
         <v>2456.31789594009</v>
       </c>
       <c r="S32" t="n">
-        <v>2366.93117925252</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="T32" t="n">
-        <v>2153.541044268562</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="U32" t="n">
-        <v>1925.553683144778</v>
+        <v>2199.418525370482</v>
       </c>
       <c r="V32" t="n">
-        <v>1575.716128481259</v>
+        <v>1849.580970706962</v>
       </c>
       <c r="W32" t="n">
-        <v>1575.716128481259</v>
+        <v>1465.820669842131</v>
       </c>
       <c r="X32" t="n">
-        <v>1575.716128481259</v>
+        <v>1065.177272011084</v>
       </c>
       <c r="Y32" t="n">
-        <v>1174.779455429349</v>
+        <v>664.2405989591738</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>109.4662927524825</v>
       </c>
       <c r="H33" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I33" t="n">
-        <v>49.12635791880179</v>
+        <v>65.15367911697383</v>
       </c>
       <c r="J33" t="n">
-        <v>98.05370567797284</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K33" t="n">
-        <v>213.3310400452835</v>
+        <v>510.6800688602474</v>
       </c>
       <c r="L33" t="n">
-        <v>387.0962713766246</v>
+        <v>684.4453001915886</v>
       </c>
       <c r="M33" t="n">
-        <v>597.7116319735975</v>
+        <v>895.0606607885616</v>
       </c>
       <c r="N33" t="n">
-        <v>819.736855650885</v>
+        <v>1117.085884465849</v>
       </c>
       <c r="O33" t="n">
-        <v>1013.847542111862</v>
+        <v>1311.196570926826</v>
       </c>
       <c r="P33" t="n">
-        <v>1621.786221357034</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q33" t="n">
-        <v>2031.788258645647</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R33" t="n">
         <v>2038.951927641833</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>563.498004559062</v>
+        <v>712.1086448218422</v>
       </c>
       <c r="C34" t="n">
-        <v>392.4046321207785</v>
+        <v>541.0152723835587</v>
       </c>
       <c r="D34" t="n">
-        <v>392.4046321207785</v>
+        <v>541.0152723835587</v>
       </c>
       <c r="E34" t="n">
-        <v>231.493816989098</v>
+        <v>380.1044572518782</v>
       </c>
       <c r="F34" t="n">
         <v>215.4733313624694</v>
       </c>
       <c r="G34" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="H34" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I34" t="n">
-        <v>49.1263579188013</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="J34" t="n">
-        <v>125.8094884535048</v>
+        <v>125.8094884535053</v>
       </c>
       <c r="K34" t="n">
-        <v>383.2338011101545</v>
+        <v>383.233801110155</v>
       </c>
       <c r="L34" t="n">
-        <v>774.7716245214647</v>
+        <v>774.7716245214652</v>
       </c>
       <c r="M34" t="n">
-        <v>1202.83236611251</v>
+        <v>1202.832366112511</v>
       </c>
       <c r="N34" t="n">
-        <v>1619.167558710278</v>
+        <v>1619.167558710279</v>
       </c>
       <c r="O34" t="n">
         <v>2003.881034589197</v>
       </c>
       <c r="P34" t="n">
-        <v>2316.646372144553</v>
+        <v>2316.646372144554</v>
       </c>
       <c r="Q34" t="n">
         <v>2456.31789594009</v>
@@ -6885,25 +6885,25 @@
         <v>2456.31789594009</v>
       </c>
       <c r="S34" t="n">
-        <v>2285.670233258385</v>
+        <v>2285.670233258386</v>
       </c>
       <c r="T34" t="n">
-        <v>2049.981551384822</v>
+        <v>2049.981551384823</v>
       </c>
       <c r="U34" t="n">
-        <v>1767.232681256262</v>
+        <v>1915.843321519042</v>
       </c>
       <c r="V34" t="n">
-        <v>1493.346936195784</v>
+        <v>1641.957576458564</v>
       </c>
       <c r="W34" t="n">
-        <v>1214.277271704658</v>
+        <v>1362.887911967438</v>
       </c>
       <c r="X34" t="n">
-        <v>975.9334095643417</v>
+        <v>1124.544049827122</v>
       </c>
       <c r="Y34" t="n">
-        <v>751.1977109531064</v>
+        <v>899.8083512158865</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1540.404140300804</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="C35" t="n">
-        <v>1130.279549614074</v>
+        <v>1530.922947445121</v>
       </c>
       <c r="D35" t="n">
-        <v>725.8156197071344</v>
+        <v>1126.459017538181</v>
       </c>
       <c r="E35" t="n">
-        <v>725.8156197071344</v>
+        <v>712.118802055078</v>
       </c>
       <c r="F35" t="n">
-        <v>725.8156197071344</v>
+        <v>291.0883900087656</v>
       </c>
       <c r="G35" t="n">
-        <v>330.8911550775198</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="H35" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I35" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J35" t="n">
-        <v>135.5536585935969</v>
+        <v>416.0853656505564</v>
       </c>
       <c r="K35" t="n">
-        <v>298.4006618101654</v>
+        <v>578.9323688671249</v>
       </c>
       <c r="L35" t="n">
-        <v>515.3719827698309</v>
+        <v>795.9036898267904</v>
       </c>
       <c r="M35" t="n">
-        <v>769.6205054001886</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N35" t="n">
-        <v>1029.85162732878</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O35" t="n">
-        <v>1270.179715674899</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P35" t="n">
         <v>1741.852980600561</v>
@@ -6979,10 +6979,10 @@
         <v>1941.047538131851</v>
       </c>
       <c r="X35" t="n">
-        <v>1540.404140300804</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="Y35" t="n">
-        <v>1540.404140300804</v>
+        <v>1941.047538131851</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>687.2060646415983</v>
+        <v>687.206064641598</v>
       </c>
       <c r="C36" t="n">
-        <v>553.210993390544</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D36" t="n">
-        <v>436.3138356099364</v>
+        <v>436.3138356099362</v>
       </c>
       <c r="E36" t="n">
-        <v>315.8210196022644</v>
+        <v>315.8210196022642</v>
       </c>
       <c r="F36" t="n">
-        <v>206.861139784769</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G36" t="n">
         <v>100.9486199300691</v>
@@ -7016,28 +7016,28 @@
         <v>56.63600629456043</v>
       </c>
       <c r="J36" t="n">
-        <v>105.5633540537315</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K36" t="n">
-        <v>220.8406884210421</v>
+        <v>464.5090923956754</v>
       </c>
       <c r="L36" t="n">
-        <v>394.6059197523832</v>
+        <v>638.2743237270165</v>
       </c>
       <c r="M36" t="n">
-        <v>605.2212803493561</v>
+        <v>848.8896843239895</v>
       </c>
       <c r="N36" t="n">
-        <v>827.2465040266436</v>
+        <v>1070.914908001277</v>
       </c>
       <c r="O36" t="n">
-        <v>1021.357190487621</v>
+        <v>1265.025594462254</v>
       </c>
       <c r="P36" t="n">
-        <v>1450.639945261231</v>
+        <v>1767.558072530061</v>
       </c>
       <c r="Q36" t="n">
-        <v>1935.300869346253</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R36" t="n">
         <v>2030.43425481942</v>
@@ -7052,16 +7052,16 @@
         <v>1590.1817340451</v>
       </c>
       <c r="V36" t="n">
-        <v>1376.470207038134</v>
+        <v>1376.470207038133</v>
       </c>
       <c r="W36" t="n">
         <v>1163.237038774462</v>
       </c>
       <c r="X36" t="n">
-        <v>986.911056913355</v>
+        <v>986.9110569133546</v>
       </c>
       <c r="Y36" t="n">
-        <v>827.509097277185</v>
+        <v>827.5090972771847</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>689.6538181651498</v>
+        <v>308.2620261200967</v>
       </c>
       <c r="C37" t="n">
-        <v>674.0728507292195</v>
+        <v>308.2620261200967</v>
       </c>
       <c r="D37" t="n">
-        <v>674.0728507292195</v>
+        <v>308.2620261200967</v>
       </c>
       <c r="E37" t="n">
-        <v>513.162035597539</v>
+        <v>308.2620261200967</v>
       </c>
       <c r="F37" t="n">
-        <v>348.5309097081303</v>
+        <v>308.2620261200967</v>
       </c>
       <c r="G37" t="n">
-        <v>182.1839362644627</v>
+        <v>141.9150526764291</v>
       </c>
       <c r="H37" t="n">
-        <v>40.60868509638841</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="I37" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J37" t="n">
-        <v>87.09729101179067</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K37" t="n">
-        <v>344.5216036684404</v>
+        <v>218.247643462603</v>
       </c>
       <c r="L37" t="n">
-        <v>736.0594270797505</v>
+        <v>609.7854668739133</v>
       </c>
       <c r="M37" t="n">
-        <v>1164.120168670796</v>
+        <v>1037.846208464959</v>
       </c>
       <c r="N37" t="n">
-        <v>1580.455361268564</v>
+        <v>1454.181401062727</v>
       </c>
       <c r="O37" t="n">
-        <v>1965.168837147482</v>
+        <v>1838.894876941645</v>
       </c>
       <c r="P37" t="n">
-        <v>2017.036691229721</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q37" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R37" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S37" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T37" t="n">
-        <v>1750.093796456549</v>
+        <v>1794.745572945857</v>
       </c>
       <c r="U37" t="n">
-        <v>1467.344926327989</v>
+        <v>1511.996702817297</v>
       </c>
       <c r="V37" t="n">
-        <v>1193.459181267511</v>
+        <v>1238.110957756819</v>
       </c>
       <c r="W37" t="n">
-        <v>914.3895167763851</v>
+        <v>959.041293265693</v>
       </c>
       <c r="X37" t="n">
-        <v>914.3895167763851</v>
+        <v>720.6974311253764</v>
       </c>
       <c r="Y37" t="n">
-        <v>689.6538181651498</v>
+        <v>495.9617325141411</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>962.3770315334129</v>
+        <v>1083.44626430711</v>
       </c>
       <c r="C38" t="n">
-        <v>962.3770315334129</v>
+        <v>1083.44626430711</v>
       </c>
       <c r="D38" t="n">
-        <v>962.3770315334129</v>
+        <v>1083.44626430711</v>
       </c>
       <c r="E38" t="n">
-        <v>751.9215671238323</v>
+        <v>669.1060488240071</v>
       </c>
       <c r="F38" t="n">
-        <v>330.8911550775198</v>
+        <v>248.0756367776946</v>
       </c>
       <c r="G38" t="n">
-        <v>330.8911550775198</v>
+        <v>248.0756367776946</v>
       </c>
       <c r="H38" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I38" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J38" t="n">
-        <v>416.0853656505568</v>
+        <v>135.553658593597</v>
       </c>
       <c r="K38" t="n">
-        <v>578.9323688671252</v>
+        <v>298.4006618101654</v>
       </c>
       <c r="L38" t="n">
-        <v>795.9036898267907</v>
+        <v>795.9036898267904</v>
       </c>
       <c r="M38" t="n">
         <v>1050.152212457148</v>
@@ -7204,22 +7204,22 @@
         <v>2030.43425481942</v>
       </c>
       <c r="T38" t="n">
-        <v>2030.43425481942</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="U38" t="n">
-        <v>1773.534884249812</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="V38" t="n">
-        <v>1773.534884249812</v>
+        <v>1467.206565171942</v>
       </c>
       <c r="W38" t="n">
-        <v>1773.534884249812</v>
+        <v>1083.44626430711</v>
       </c>
       <c r="X38" t="n">
-        <v>1773.534884249812</v>
+        <v>1083.44626430711</v>
       </c>
       <c r="Y38" t="n">
-        <v>1372.598211197902</v>
+        <v>1083.44626430711</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>687.2060646415983</v>
+        <v>687.2060646415979</v>
       </c>
       <c r="C39" t="n">
-        <v>553.210993390544</v>
+        <v>553.2109933905436</v>
       </c>
       <c r="D39" t="n">
-        <v>436.3138356099364</v>
+        <v>436.3138356099362</v>
       </c>
       <c r="E39" t="n">
-        <v>315.8210196022644</v>
+        <v>315.8210196022642</v>
       </c>
       <c r="F39" t="n">
-        <v>206.861139784769</v>
+        <v>206.8611397847687</v>
       </c>
       <c r="G39" t="n">
-        <v>100.9486199300691</v>
+        <v>100.9486199300693</v>
       </c>
       <c r="H39" t="n">
         <v>40.60868509638841</v>
@@ -7253,28 +7253,28 @@
         <v>56.63600629456043</v>
       </c>
       <c r="J39" t="n">
-        <v>349.2317580283647</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K39" t="n">
-        <v>851.7642360961713</v>
+        <v>464.5090923956754</v>
       </c>
       <c r="L39" t="n">
-        <v>1025.529467427512</v>
+        <v>638.2743237270165</v>
       </c>
       <c r="M39" t="n">
-        <v>1236.144828024485</v>
+        <v>848.8896843239895</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.170051701773</v>
+        <v>1070.914908001277</v>
       </c>
       <c r="O39" t="n">
-        <v>1652.28073816275</v>
+        <v>1265.025594462254</v>
       </c>
       <c r="P39" t="n">
-        <v>1800.241785319567</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q39" t="n">
-        <v>1935.300869346253</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R39" t="n">
         <v>2030.43425481942</v>
@@ -7286,19 +7286,19 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U39" t="n">
-        <v>1590.1817340451</v>
+        <v>1590.181734045099</v>
       </c>
       <c r="V39" t="n">
-        <v>1376.470207038134</v>
+        <v>1376.470207038133</v>
       </c>
       <c r="W39" t="n">
         <v>1163.237038774462</v>
       </c>
       <c r="X39" t="n">
-        <v>986.911056913355</v>
+        <v>986.9110569133545</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.509097277185</v>
+        <v>827.5090972771845</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>542.6799141219145</v>
+        <v>550.0497684436723</v>
       </c>
       <c r="C40" t="n">
-        <v>371.586541683631</v>
+        <v>550.0497684436723</v>
       </c>
       <c r="D40" t="n">
-        <v>371.586541683631</v>
+        <v>550.0497684436723</v>
       </c>
       <c r="E40" t="n">
-        <v>371.586541683631</v>
+        <v>513.162035597539</v>
       </c>
       <c r="F40" t="n">
-        <v>206.955658540056</v>
+        <v>348.5309097081303</v>
       </c>
       <c r="G40" t="n">
-        <v>40.60868509638841</v>
+        <v>182.1839362644627</v>
       </c>
       <c r="H40" t="n">
         <v>40.60868509638841</v>
@@ -7335,19 +7335,19 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K40" t="n">
-        <v>218.2476434626033</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L40" t="n">
-        <v>609.7854668739135</v>
+        <v>452.2748404640288</v>
       </c>
       <c r="M40" t="n">
-        <v>1037.846208464959</v>
+        <v>880.3355820550746</v>
       </c>
       <c r="N40" t="n">
-        <v>1454.181401062727</v>
+        <v>1193.283917589609</v>
       </c>
       <c r="O40" t="n">
-        <v>1838.894876941645</v>
+        <v>1577.997393468527</v>
       </c>
       <c r="P40" t="n">
         <v>1890.762731023884</v>
@@ -7356,28 +7356,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R40" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S40" t="n">
-        <v>1985.782478330112</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T40" t="n">
-        <v>1750.093796456549</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U40" t="n">
-        <v>1467.344926327989</v>
+        <v>1341.349040135593</v>
       </c>
       <c r="V40" t="n">
-        <v>1193.459181267511</v>
+        <v>1067.463295075115</v>
       </c>
       <c r="W40" t="n">
-        <v>1193.459181267511</v>
+        <v>788.3936305839889</v>
       </c>
       <c r="X40" t="n">
-        <v>955.1153191271942</v>
+        <v>550.0497684436723</v>
       </c>
       <c r="Y40" t="n">
-        <v>730.3796205159589</v>
+        <v>550.0497684436723</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1039.937028721462</v>
+        <v>1023.06263930614</v>
       </c>
       <c r="C41" t="n">
-        <v>1039.937028721462</v>
+        <v>859.4128304864312</v>
       </c>
       <c r="D41" t="n">
-        <v>1039.937028721462</v>
+        <v>454.9489005794917</v>
       </c>
       <c r="E41" t="n">
-        <v>1039.937028721462</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="F41" t="n">
-        <v>618.9066166751491</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="G41" t="n">
-        <v>330.8911550775198</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H41" t="n">
         <v>40.60868509638841</v>
@@ -7414,25 +7414,25 @@
         <v>462.3294854813261</v>
       </c>
       <c r="K41" t="n">
-        <v>705.9280359432662</v>
+        <v>625.1764886978946</v>
       </c>
       <c r="L41" t="n">
-        <v>922.8993569029317</v>
+        <v>842.1478096575601</v>
       </c>
       <c r="M41" t="n">
-        <v>1177.147879533289</v>
+        <v>1096.396332287918</v>
       </c>
       <c r="N41" t="n">
-        <v>1437.37900146188</v>
+        <v>1356.627454216509</v>
       </c>
       <c r="O41" t="n">
-        <v>1677.707089808</v>
+        <v>1596.955542562628</v>
       </c>
       <c r="P41" t="n">
-        <v>1868.848647676702</v>
+        <v>1788.097100431331</v>
       </c>
       <c r="Q41" t="n">
-        <v>1992.87803497895</v>
+        <v>1912.126487733579</v>
       </c>
       <c r="R41" t="n">
         <v>2030.43425481942</v>
@@ -7441,22 +7441,22 @@
         <v>2030.43425481942</v>
       </c>
       <c r="T41" t="n">
-        <v>2030.43425481942</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="U41" t="n">
-        <v>1773.534884249812</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="V41" t="n">
-        <v>1423.697329586293</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="W41" t="n">
-        <v>1039.937028721462</v>
+        <v>1433.28381897063</v>
       </c>
       <c r="X41" t="n">
-        <v>1039.937028721462</v>
+        <v>1433.28381897063</v>
       </c>
       <c r="Y41" t="n">
-        <v>1039.937028721462</v>
+        <v>1433.28381897063</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>687.2060646415981</v>
+        <v>687.2060646415983</v>
       </c>
       <c r="C42" t="n">
-        <v>553.2109933905438</v>
+        <v>553.210993390544</v>
       </c>
       <c r="D42" t="n">
-        <v>436.3138356099362</v>
+        <v>436.3138356099364</v>
       </c>
       <c r="E42" t="n">
-        <v>315.8210196022642</v>
+        <v>315.8210196022644</v>
       </c>
       <c r="F42" t="n">
         <v>206.8611397847688</v>
@@ -7490,28 +7490,28 @@
         <v>56.63600629456043</v>
       </c>
       <c r="J42" t="n">
-        <v>105.5633540537315</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K42" t="n">
-        <v>608.095832121538</v>
+        <v>502.1623960378346</v>
       </c>
       <c r="L42" t="n">
-        <v>781.8610634528791</v>
+        <v>675.9276273691758</v>
       </c>
       <c r="M42" t="n">
-        <v>992.476424049852</v>
+        <v>886.5429879661488</v>
       </c>
       <c r="N42" t="n">
-        <v>1214.501647727139</v>
+        <v>1108.568211643436</v>
       </c>
       <c r="O42" t="n">
-        <v>1717.034125794946</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P42" t="n">
-        <v>1944.579818741986</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q42" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R42" t="n">
         <v>2030.43425481942</v>
@@ -7523,7 +7523,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U42" t="n">
-        <v>1590.181734045099</v>
+        <v>1590.1817340451</v>
       </c>
       <c r="V42" t="n">
         <v>1376.470207038133</v>
@@ -7532,10 +7532,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X42" t="n">
-        <v>986.9110569133547</v>
+        <v>986.911056913355</v>
       </c>
       <c r="Y42" t="n">
-        <v>827.5090972771848</v>
+        <v>827.509097277185</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>509.4417248398108</v>
+        <v>672.656680274629</v>
       </c>
       <c r="C43" t="n">
-        <v>509.4417248398108</v>
+        <v>672.656680274629</v>
       </c>
       <c r="D43" t="n">
-        <v>509.4417248398108</v>
+        <v>513.162035597539</v>
       </c>
       <c r="E43" t="n">
-        <v>348.5309097081303</v>
+        <v>513.162035597539</v>
       </c>
       <c r="F43" t="n">
         <v>348.5309097081303</v>
@@ -7572,22 +7572,22 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K43" t="n">
-        <v>374.7161282877416</v>
+        <v>218.247643462603</v>
       </c>
       <c r="L43" t="n">
-        <v>766.2539516990519</v>
+        <v>609.7854668739133</v>
       </c>
       <c r="M43" t="n">
-        <v>903.2226851976782</v>
+        <v>1037.846208464959</v>
       </c>
       <c r="N43" t="n">
-        <v>1319.557877795446</v>
+        <v>1454.181401062727</v>
       </c>
       <c r="O43" t="n">
-        <v>1704.271353674364</v>
+        <v>1838.894876941645</v>
       </c>
       <c r="P43" t="n">
-        <v>2017.036691229721</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q43" t="n">
         <v>2030.43425481942</v>
@@ -7596,25 +7596,25 @@
         <v>1985.782478330112</v>
       </c>
       <c r="S43" t="n">
-        <v>1815.134815648408</v>
+        <v>1985.782478330112</v>
       </c>
       <c r="T43" t="n">
-        <v>1579.446133774845</v>
+        <v>1750.093796456549</v>
       </c>
       <c r="U43" t="n">
-        <v>1488.440702925775</v>
+        <v>1467.344926327989</v>
       </c>
       <c r="V43" t="n">
-        <v>1214.554957865297</v>
+        <v>1193.459181267511</v>
       </c>
       <c r="W43" t="n">
-        <v>935.4852933741718</v>
+        <v>914.3895167763849</v>
       </c>
       <c r="X43" t="n">
-        <v>697.1414312338552</v>
+        <v>676.0456546360683</v>
       </c>
       <c r="Y43" t="n">
-        <v>697.1414312338552</v>
+        <v>672.656680274629</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1629.790856988373</v>
+        <v>1270.61793858893</v>
       </c>
       <c r="C44" t="n">
-        <v>1629.790856988373</v>
+        <v>860.4933479021997</v>
       </c>
       <c r="D44" t="n">
-        <v>1282.693582096951</v>
+        <v>456.0294179952603</v>
       </c>
       <c r="E44" t="n">
-        <v>868.3533666138476</v>
+        <v>456.0294179952603</v>
       </c>
       <c r="F44" t="n">
-        <v>447.3229545675351</v>
+        <v>456.0294179952603</v>
       </c>
       <c r="G44" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="H44" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I44" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J44" t="n">
-        <v>416.0853656505566</v>
+        <v>416.0853656505564</v>
       </c>
       <c r="K44" t="n">
-        <v>578.932368867125</v>
+        <v>578.9323688671249</v>
       </c>
       <c r="L44" t="n">
-        <v>795.9036898267905</v>
+        <v>795.9036898267904</v>
       </c>
       <c r="M44" t="n">
         <v>1050.152212457148</v>
@@ -7675,25 +7675,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S44" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T44" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U44" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="V44" t="n">
-        <v>2030.43425481942</v>
+        <v>1680.839118253419</v>
       </c>
       <c r="W44" t="n">
-        <v>2030.43425481942</v>
+        <v>1680.839118253419</v>
       </c>
       <c r="X44" t="n">
-        <v>1629.790856988373</v>
+        <v>1680.839118253419</v>
       </c>
       <c r="Y44" t="n">
-        <v>1629.790856988373</v>
+        <v>1680.839118253419</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>206.8611397847687</v>
       </c>
       <c r="G45" t="n">
-        <v>100.9486199300691</v>
+        <v>100.9486199300693</v>
       </c>
       <c r="H45" t="n">
         <v>40.60868509638841</v>
@@ -7727,25 +7727,25 @@
         <v>56.63600629456043</v>
       </c>
       <c r="J45" t="n">
-        <v>105.5633540537315</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K45" t="n">
-        <v>245.1393305237899</v>
+        <v>502.1623960378346</v>
       </c>
       <c r="L45" t="n">
-        <v>418.904561855131</v>
+        <v>675.9276273691758</v>
       </c>
       <c r="M45" t="n">
-        <v>629.5199224521039</v>
+        <v>886.5429879661488</v>
       </c>
       <c r="N45" t="n">
-        <v>851.5451461293915</v>
+        <v>1108.568211643436</v>
       </c>
       <c r="O45" t="n">
-        <v>1354.077624197198</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P45" t="n">
-        <v>1856.610102265005</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q45" t="n">
         <v>1935.300869346252</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1051.435276733456</v>
+        <v>376.3331834240806</v>
       </c>
       <c r="C46" t="n">
-        <v>922.745309277894</v>
+        <v>205.2398109857971</v>
       </c>
       <c r="D46" t="n">
-        <v>763.2506646008039</v>
+        <v>205.2398109857971</v>
       </c>
       <c r="E46" t="n">
-        <v>602.3398494691234</v>
+        <v>205.2398109857971</v>
       </c>
       <c r="F46" t="n">
-        <v>437.7087235797146</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="G46" t="n">
-        <v>271.361750136047</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H46" t="n">
-        <v>129.7864989679727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I46" t="n">
         <v>40.60868509638841</v>
@@ -7815,7 +7815,7 @@
         <v>766.2539516990519</v>
       </c>
       <c r="M46" t="n">
-        <v>849.3483437758122</v>
+        <v>1108.983026439427</v>
       </c>
       <c r="N46" t="n">
         <v>1193.283917589609</v>
@@ -7833,25 +7833,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S46" t="n">
-        <v>2030.43425481942</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T46" t="n">
-        <v>2030.43425481942</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="U46" t="n">
-        <v>2030.43425481942</v>
+        <v>1577.037722009156</v>
       </c>
       <c r="V46" t="n">
-        <v>1756.548509758942</v>
+        <v>1303.151976948678</v>
       </c>
       <c r="W46" t="n">
-        <v>1477.478845267816</v>
+        <v>1024.082312457552</v>
       </c>
       <c r="X46" t="n">
-        <v>1239.1349831275</v>
+        <v>785.7384503172357</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.1349831275</v>
+        <v>561.0027517060004</v>
       </c>
     </row>
   </sheetData>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>81.56721943976899</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>283.3653606635957</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,19 +8771,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>391.1668118186827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>56.93769388428029</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>136.567342463741</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>311.5371632392216</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8853,10 +8853,10 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>317.1506174091142</v>
+        <v>159.1016428382671</v>
       </c>
       <c r="M13" t="n">
-        <v>54.41852668875353</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
         <v>335.3881832803894</v>
@@ -8865,10 +8865,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3653606635958</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>81.56721943976896</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>38.03364004258509</v>
       </c>
       <c r="L15" t="n">
-        <v>38.03364004258529</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>177.8643120872858</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>348.4508580952379</v>
+        <v>262.257255215772</v>
       </c>
       <c r="N16" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3653606635958</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>18.51244175280041</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>264.852918910795</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>38.03364004258532</v>
+        <v>38.03364004258509</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9324,13 +9324,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>50.314857333915</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4508580952379</v>
+        <v>317.9513382777616</v>
       </c>
       <c r="N19" t="n">
         <v>335.3881832803894</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3653606635956</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>81.56721943976896</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>373.0216404987617</v>
+        <v>391.1668118186827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>56.93769388427978</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
@@ -9570,13 +9570,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>232.0637298667368</v>
       </c>
       <c r="P22" t="n">
-        <v>50.31485733391469</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
         <v>127.5494547533709</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>351.2197548652335</v>
+        <v>290.5082850553165</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>23.65079914232876</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>143.08115284577</v>
+        <v>38.03364004258449</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>394.9165235207139</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>351.2197548652335</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>374.8705540075625</v>
       </c>
       <c r="R26" t="n">
-        <v>87.08932002956465</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>54.22285337407166</v>
+        <v>38.03364004258449</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>310.0306233027362</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>394.916523520714</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>374.870554007562</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>38.03364004258449</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>418.0080735193891</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.28564551506012</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>394.9165235207139</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>371.3238291909624</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>374.8705540075625</v>
       </c>
       <c r="R32" t="n">
-        <v>66.98524570383597</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>38.03364004258449</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>464.623870796318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>334.6578486943077</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>283.3653606635953</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>283.3653606635957</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>284.1633410270634</v>
+        <v>358.1529605161505</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>89.95154518681176</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>35.15842324447996</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>50.3148573339147</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3653606635958</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>283.3653606635954</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>391.1668118186827</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>38.03364004258501</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.93769388428024</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10983,22 +10983,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>50.314857333915</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
-        <v>335.3881832803894</v>
+        <v>230.9570145296483</v>
       </c>
       <c r="O40" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
         <v>127.5494547533709</v>
@@ -11062,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>81.56721943976939</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.56721943976896</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>391.1668118186827</v>
+        <v>38.03364004258509</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>311.5371632392217</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>80.38853110123509</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,13 +11220,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>50.3148573339147</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>54.41852668875353</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
@@ -11235,10 +11235,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3653606635956</v>
+        <v>283.3653606635953</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>24.54408293206845</v>
+        <v>38.03364004258509</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>311.5371632392216</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>358.1529605161506</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11463,10 +11463,10 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>262.257255215772</v>
       </c>
       <c r="N46" t="n">
-        <v>262.257255215772</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>287.3796452813201</v>
+        <v>128.5177880559759</v>
       </c>
       <c r="I11" t="n">
-        <v>8.619398793447942</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T11" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.3303768639121</v>
@@ -23320,13 +23320,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>124.6914089245972</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>121.823647575638</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.20525872441497</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>56.39578339838604</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -23497,7 +23497,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H14" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8.619398793447942</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.4928495206937</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T14" t="n">
-        <v>211.2562336341194</v>
+        <v>140.9045466461276</v>
       </c>
       <c r="U14" t="n">
         <v>254.3303768639121</v>
@@ -23557,13 +23557,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>62.68738510600872</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.42572586772729</v>
       </c>
       <c r="E16" t="n">
-        <v>9.523244376600076</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.6835037092309</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.20525872441497</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S16" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H17" t="n">
-        <v>252.8888072207512</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>8.619398793447942</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>320.580526152665</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>17.61328777164756</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.20525872441497</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S19" t="n">
-        <v>168.9411860548871</v>
+        <v>34.61199067125523</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>402.6471267764352</v>
@@ -23989,7 +23989,7 @@
         <v>287.3796452813201</v>
       </c>
       <c r="I20" t="n">
-        <v>8.619398793447942</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.4928495206937</v>
+        <v>63.83118936138446</v>
       </c>
       <c r="T20" t="n">
         <v>211.2562336341194</v>
@@ -24028,16 +24028,16 @@
         <v>254.3303768639121</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>49.75840887943878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>73.34681715531651</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24144,10 +24144,10 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H22" t="n">
-        <v>140.1594986563935</v>
+        <v>132.8511654896914</v>
       </c>
       <c r="I22" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.20525872441497</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>67.72542743850659</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>88.4928495206937</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T23" t="n">
         <v>211.2562336341194</v>
@@ -24265,16 +24265,16 @@
         <v>254.3303768639121</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>354.415685463736</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>117.9015938026453</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.20525872441497</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>23.85900357869028</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>346.4856739263786</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>91.93877402967536</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>8.619398793447942</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>88.4928495206937</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U26" t="n">
         <v>254.3303768639121</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.20525872441497</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>9.353339427759749</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>95.6486868221387</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>59.10602864505898</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H29" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>8.619398793447942</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>88.4928495206937</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T29" t="n">
         <v>211.2562336341194</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3303768639121</v>
+        <v>113.5558829763495</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>147.1245338601515</v>
       </c>
       <c r="G31" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.1594986563935</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>15.16354839175466</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24922,13 +24922,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>87.45523605266987</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>402.6471267764352</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>8.619398793447942</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U32" t="n">
-        <v>28.62288935136641</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>147.1245338601524</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.20525872441497</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>147.1245338601514</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>11.67190679311688</v>
+        <v>163.2916177066298</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I35" t="n">
-        <v>8.619398793447942</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>153.9572809523296</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>128.1522304850217</v>
       </c>
       <c r="I37" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S37" t="n">
         <v>168.9411860548871</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25399,7 +25399,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>201.8459035627875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>402.6471267764352</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>90.60676191027491</v>
       </c>
       <c r="I38" t="n">
-        <v>8.619398793447942</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>88.4928495206937</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T38" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>122.7828514626918</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0002403183754040583</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>88.28603573286843</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S40" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>244.0100340483506</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>117.5118197947824</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I41" t="n">
-        <v>8.619398793447942</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>88.4928495206937</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T41" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>189.8260048866958</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>219.133257007298</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>56.79298846536238</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>287.3796452813201</v>
       </c>
       <c r="I44" t="n">
-        <v>8.619398793447942</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>88.4928495206937</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.3303768639121</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>299.9890770713561</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2.999836731003427</v>
       </c>
       <c r="C46" t="n">
-        <v>41.97937093289468</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.20525872441497</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S46" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>233.3317950548276</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>385616.6455051741</v>
+        <v>385616.6455051739</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>385616.6455051739</v>
+        <v>385616.6455051741</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>440564.6062464532</v>
+        <v>440564.6062464534</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>440564.6062464534</v>
+        <v>440564.6062464532</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>440564.6062464533</v>
+        <v>440564.6062464534</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>385616.6455051739</v>
+        <v>385616.6455051741</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>385616.6455051739</v>
+        <v>385616.645505174</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>385616.645505174</v>
+        <v>385616.6455051741</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583208.728090267</v>
+        <v>583208.7280902667</v>
       </c>
       <c r="C2" t="n">
-        <v>583208.728090267</v>
+        <v>583208.7280902672</v>
       </c>
       <c r="D2" t="n">
         <v>583208.728090267</v>
@@ -26325,19 +26325,19 @@
         <v>361358.4584101323</v>
       </c>
       <c r="F2" t="n">
-        <v>361358.4584101322</v>
+        <v>361358.4584101324</v>
       </c>
       <c r="G2" t="n">
         <v>361358.4584101323</v>
       </c>
       <c r="H2" t="n">
-        <v>361358.4584101323</v>
+        <v>361358.4584101322</v>
       </c>
       <c r="I2" t="n">
-        <v>399884.5092654204</v>
+        <v>399884.5092654206</v>
       </c>
       <c r="J2" t="n">
-        <v>399884.5092654204</v>
+        <v>399884.5092654205</v>
       </c>
       <c r="K2" t="n">
         <v>399884.5092654205</v>
@@ -26346,13 +26346,13 @@
         <v>399884.5092654206</v>
       </c>
       <c r="M2" t="n">
-        <v>361358.4584101324</v>
+        <v>361358.4584101323</v>
       </c>
       <c r="N2" t="n">
-        <v>361358.4584101324</v>
+        <v>361358.4584101323</v>
       </c>
       <c r="O2" t="n">
-        <v>361358.4584101324</v>
+        <v>361358.4584101323</v>
       </c>
       <c r="P2" t="n">
         <v>361358.4584101322</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>550029.5804548443</v>
+        <v>550029.5804548444</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28312.8509326124</v>
+        <v>28312.85093261243</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99965.10778404589</v>
+        <v>99965.10778404586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>355722.5312813406</v>
       </c>
       <c r="E4" t="n">
-        <v>44773.83054183639</v>
+        <v>44773.83054183637</v>
       </c>
       <c r="F4" t="n">
-        <v>44773.83054183639</v>
+        <v>44773.83054183636</v>
       </c>
       <c r="G4" t="n">
-        <v>44773.8305418364</v>
+        <v>44773.83054183637</v>
       </c>
       <c r="H4" t="n">
-        <v>44773.83054183638</v>
+        <v>44773.83054183636</v>
       </c>
       <c r="I4" t="n">
-        <v>63401.59039602403</v>
+        <v>63401.59039602402</v>
       </c>
       <c r="J4" t="n">
         <v>63401.59039602402</v>
@@ -26447,16 +26447,16 @@
         <v>63401.59039602402</v>
       </c>
       <c r="L4" t="n">
-        <v>63401.59039602403</v>
+        <v>63401.59039602402</v>
       </c>
       <c r="M4" t="n">
-        <v>44773.83054183639</v>
+        <v>44773.83054183636</v>
       </c>
       <c r="N4" t="n">
-        <v>44773.8305418364</v>
+        <v>44773.83054183637</v>
       </c>
       <c r="O4" t="n">
-        <v>44773.8305418364</v>
+        <v>44773.83054183636</v>
       </c>
       <c r="P4" t="n">
         <v>44773.83054183637</v>
@@ -26490,16 +26490,16 @@
         <v>41674.88356206352</v>
       </c>
       <c r="I5" t="n">
-        <v>48148.31490709769</v>
+        <v>48148.3149070977</v>
       </c>
       <c r="J5" t="n">
-        <v>48148.31490709769</v>
+        <v>48148.3149070977</v>
       </c>
       <c r="K5" t="n">
-        <v>48148.31490709769</v>
+        <v>48148.3149070977</v>
       </c>
       <c r="L5" t="n">
-        <v>48148.31490709769</v>
+        <v>48148.3149070977</v>
       </c>
       <c r="M5" t="n">
         <v>41674.88356206352</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193858.5968089264</v>
+        <v>193849.7971232967</v>
       </c>
       <c r="C6" t="n">
-        <v>193858.5968089264</v>
+        <v>193849.7971232971</v>
       </c>
       <c r="D6" t="n">
-        <v>193858.5968089264</v>
+        <v>193849.797123297</v>
       </c>
       <c r="E6" t="n">
-        <v>-275119.8361486119</v>
+        <v>-275744.8865833528</v>
       </c>
       <c r="F6" t="n">
-        <v>274909.7443062323</v>
+        <v>274284.6938714918</v>
       </c>
       <c r="G6" t="n">
-        <v>274909.7443062324</v>
+        <v>274284.6938714916</v>
       </c>
       <c r="H6" t="n">
-        <v>274909.7443062324</v>
+        <v>274284.6938714915</v>
       </c>
       <c r="I6" t="n">
-        <v>260021.7530296863</v>
+        <v>259503.719402877</v>
       </c>
       <c r="J6" t="n">
-        <v>288334.6039622987</v>
+        <v>287816.5703354892</v>
       </c>
       <c r="K6" t="n">
-        <v>288334.6039622988</v>
+        <v>287816.5703354892</v>
       </c>
       <c r="L6" t="n">
-        <v>288334.6039622989</v>
+        <v>287816.5703354893</v>
       </c>
       <c r="M6" t="n">
-        <v>174944.6365221866</v>
+        <v>174319.5860874457</v>
       </c>
       <c r="N6" t="n">
-        <v>274909.7443062325</v>
+        <v>274284.6938714915</v>
       </c>
       <c r="O6" t="n">
-        <v>274909.7443062325</v>
+        <v>274284.6938714916</v>
       </c>
       <c r="P6" t="n">
-        <v>274909.7443062323</v>
+        <v>274284.6938714915</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495.9762793031344</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="F3" t="n">
-        <v>495.9762793031344</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="G3" t="n">
-        <v>495.9762793031344</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="H3" t="n">
-        <v>495.9762793031344</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="I3" t="n">
-        <v>495.9762793031344</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="J3" t="n">
-        <v>495.9762793031344</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="K3" t="n">
-        <v>495.9762793031344</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="L3" t="n">
-        <v>495.9762793031344</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="M3" t="n">
-        <v>495.9762793031344</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="N3" t="n">
-        <v>495.9762793031344</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="O3" t="n">
-        <v>495.9762793031344</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="P3" t="n">
-        <v>495.9762793031344</v>
+        <v>495.9762793031345</v>
       </c>
     </row>
     <row r="4">
@@ -26798,37 +26798,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>507.6085637048551</v>
+        <v>507.608563704855</v>
       </c>
       <c r="F4" t="n">
-        <v>507.6085637048551</v>
+        <v>507.608563704855</v>
       </c>
       <c r="G4" t="n">
-        <v>507.6085637048551</v>
+        <v>507.608563704855</v>
       </c>
       <c r="H4" t="n">
         <v>507.608563704855</v>
       </c>
       <c r="I4" t="n">
-        <v>614.0794739850224</v>
+        <v>614.0794739850226</v>
       </c>
       <c r="J4" t="n">
-        <v>614.0794739850224</v>
+        <v>614.0794739850226</v>
       </c>
       <c r="K4" t="n">
-        <v>614.0794739850224</v>
+        <v>614.0794739850226</v>
       </c>
       <c r="L4" t="n">
-        <v>614.0794739850224</v>
+        <v>614.0794739850226</v>
       </c>
       <c r="M4" t="n">
-        <v>507.6085637048551</v>
+        <v>507.608563704855</v>
       </c>
       <c r="N4" t="n">
-        <v>507.6085637048551</v>
+        <v>507.608563704855</v>
       </c>
       <c r="O4" t="n">
-        <v>507.6085637048551</v>
+        <v>507.608563704855</v>
       </c>
       <c r="P4" t="n">
         <v>507.608563704855</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495.9762793031344</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>507.6085637048551</v>
+        <v>507.608563704855</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.4709102801674</v>
+        <v>106.4709102801675</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>401.1376534246878</v>
+        <v>401.1376534246876</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>507.6085637048551</v>
+        <v>507.608563704855</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.99387448966084</v>
+        <v>1.993874489660841</v>
       </c>
       <c r="H11" t="n">
         <v>20.41976711723909</v>
       </c>
       <c r="I11" t="n">
-        <v>76.86884626264963</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J11" t="n">
         <v>169.2276049668519</v>
@@ -31770,7 +31770,7 @@
         <v>314.6483485271534</v>
       </c>
       <c r="M11" t="n">
-        <v>350.1069139826593</v>
+        <v>350.1069139826594</v>
       </c>
       <c r="N11" t="n">
         <v>355.7720098764082</v>
@@ -31782,7 +31782,7 @@
         <v>286.7216439563412</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.3160137953622</v>
+        <v>215.3160137953623</v>
       </c>
       <c r="R11" t="n">
         <v>125.2477184111579</v>
@@ -31791,7 +31791,7 @@
         <v>45.43541493314645</v>
       </c>
       <c r="T11" t="n">
-        <v>8.728185578490333</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U11" t="n">
         <v>0.1595099591728672</v>
@@ -31849,19 +31849,19 @@
         <v>231.6349594990724</v>
       </c>
       <c r="M12" t="n">
-        <v>270.3070722202082</v>
+        <v>270.3070722202083</v>
       </c>
       <c r="N12" t="n">
         <v>277.4612960980809</v>
       </c>
       <c r="O12" t="n">
-        <v>253.8228794656333</v>
+        <v>253.8228794656334</v>
       </c>
       <c r="P12" t="n">
         <v>203.7152381915082</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1782418192304</v>
+        <v>136.1782418192305</v>
       </c>
       <c r="R12" t="n">
         <v>66.23622839448278</v>
@@ -31870,7 +31870,7 @@
         <v>19.81565606461107</v>
       </c>
       <c r="T12" t="n">
-        <v>4.300020761128117</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U12" t="n">
         <v>0.07018532254289642</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.894383454481062</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H13" t="n">
-        <v>7.951881986204357</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I13" t="n">
-        <v>26.89654970384867</v>
+        <v>26.89654970384868</v>
       </c>
       <c r="J13" t="n">
-        <v>63.23291023181108</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K13" t="n">
         <v>103.9110958933452</v>
       </c>
       <c r="L13" t="n">
-        <v>132.9704274053026</v>
+        <v>132.9704274053027</v>
       </c>
       <c r="M13" t="n">
         <v>140.198671869245</v>
@@ -31940,7 +31940,7 @@
         <v>108.1716134401459</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.8924181747733</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R13" t="n">
         <v>40.21473241693938</v>
@@ -31952,7 +31952,7 @@
         <v>3.821456578237264</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04878455206260344</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.99387448966084</v>
+        <v>1.993874489660841</v>
       </c>
       <c r="H14" t="n">
         <v>20.41976711723909</v>
       </c>
       <c r="I14" t="n">
-        <v>76.86884626264963</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J14" t="n">
         <v>169.2276049668519</v>
@@ -32007,7 +32007,7 @@
         <v>314.6483485271534</v>
       </c>
       <c r="M14" t="n">
-        <v>350.1069139826593</v>
+        <v>350.1069139826594</v>
       </c>
       <c r="N14" t="n">
         <v>355.7720098764082</v>
@@ -32019,7 +32019,7 @@
         <v>286.7216439563412</v>
       </c>
       <c r="Q14" t="n">
-        <v>215.3160137953622</v>
+        <v>215.3160137953623</v>
       </c>
       <c r="R14" t="n">
         <v>125.2477184111579</v>
@@ -32028,7 +32028,7 @@
         <v>45.43541493314645</v>
       </c>
       <c r="T14" t="n">
-        <v>8.728185578490333</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U14" t="n">
         <v>0.1595099591728672</v>
@@ -32086,19 +32086,19 @@
         <v>231.6349594990724</v>
       </c>
       <c r="M15" t="n">
-        <v>270.3070722202082</v>
+        <v>270.3070722202083</v>
       </c>
       <c r="N15" t="n">
         <v>277.4612960980809</v>
       </c>
       <c r="O15" t="n">
-        <v>253.8228794656333</v>
+        <v>253.8228794656334</v>
       </c>
       <c r="P15" t="n">
         <v>203.7152381915082</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1782418192304</v>
+        <v>136.1782418192305</v>
       </c>
       <c r="R15" t="n">
         <v>66.23622839448278</v>
@@ -32107,7 +32107,7 @@
         <v>19.81565606461107</v>
       </c>
       <c r="T15" t="n">
-        <v>4.300020761128117</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U15" t="n">
         <v>0.07018532254289642</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.894383454481062</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H16" t="n">
-        <v>7.951881986204357</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I16" t="n">
-        <v>26.89654970384867</v>
+        <v>26.89654970384868</v>
       </c>
       <c r="J16" t="n">
-        <v>63.23291023181108</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K16" t="n">
         <v>103.9110958933452</v>
       </c>
       <c r="L16" t="n">
-        <v>132.9704274053026</v>
+        <v>132.9704274053027</v>
       </c>
       <c r="M16" t="n">
         <v>140.198671869245</v>
@@ -32177,7 +32177,7 @@
         <v>108.1716134401459</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.8924181747733</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R16" t="n">
         <v>40.21473241693938</v>
@@ -32189,7 +32189,7 @@
         <v>3.821456578237264</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04878455206260344</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.99387448966084</v>
+        <v>1.993874489660841</v>
       </c>
       <c r="H17" t="n">
         <v>20.41976711723909</v>
       </c>
       <c r="I17" t="n">
-        <v>76.86884626264963</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J17" t="n">
         <v>169.2276049668519</v>
@@ -32244,7 +32244,7 @@
         <v>314.6483485271534</v>
       </c>
       <c r="M17" t="n">
-        <v>350.1069139826593</v>
+        <v>350.1069139826594</v>
       </c>
       <c r="N17" t="n">
         <v>355.7720098764082</v>
@@ -32256,7 +32256,7 @@
         <v>286.7216439563412</v>
       </c>
       <c r="Q17" t="n">
-        <v>215.3160137953622</v>
+        <v>215.3160137953623</v>
       </c>
       <c r="R17" t="n">
         <v>125.2477184111579</v>
@@ -32265,7 +32265,7 @@
         <v>45.43541493314645</v>
       </c>
       <c r="T17" t="n">
-        <v>8.728185578490333</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U17" t="n">
         <v>0.1595099591728672</v>
@@ -32323,19 +32323,19 @@
         <v>231.6349594990724</v>
       </c>
       <c r="M18" t="n">
-        <v>270.3070722202082</v>
+        <v>270.3070722202083</v>
       </c>
       <c r="N18" t="n">
         <v>277.4612960980809</v>
       </c>
       <c r="O18" t="n">
-        <v>253.8228794656333</v>
+        <v>253.8228794656334</v>
       </c>
       <c r="P18" t="n">
         <v>203.7152381915082</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1782418192304</v>
+        <v>136.1782418192305</v>
       </c>
       <c r="R18" t="n">
         <v>66.23622839448278</v>
@@ -32344,7 +32344,7 @@
         <v>19.81565606461107</v>
       </c>
       <c r="T18" t="n">
-        <v>4.300020761128117</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U18" t="n">
         <v>0.07018532254289642</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.894383454481062</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H19" t="n">
-        <v>7.951881986204357</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I19" t="n">
-        <v>26.89654970384867</v>
+        <v>26.89654970384868</v>
       </c>
       <c r="J19" t="n">
-        <v>63.23291023181108</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K19" t="n">
         <v>103.9110958933452</v>
       </c>
       <c r="L19" t="n">
-        <v>132.9704274053026</v>
+        <v>132.9704274053027</v>
       </c>
       <c r="M19" t="n">
         <v>140.198671869245</v>
@@ -32414,7 +32414,7 @@
         <v>108.1716134401459</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.8924181747733</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R19" t="n">
         <v>40.21473241693938</v>
@@ -32426,7 +32426,7 @@
         <v>3.821456578237264</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04878455206260344</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.99387448966084</v>
+        <v>1.993874489660841</v>
       </c>
       <c r="H20" t="n">
         <v>20.41976711723909</v>
       </c>
       <c r="I20" t="n">
-        <v>76.86884626264963</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J20" t="n">
         <v>169.2276049668519</v>
@@ -32481,7 +32481,7 @@
         <v>314.6483485271534</v>
       </c>
       <c r="M20" t="n">
-        <v>350.1069139826593</v>
+        <v>350.1069139826594</v>
       </c>
       <c r="N20" t="n">
         <v>355.7720098764082</v>
@@ -32493,7 +32493,7 @@
         <v>286.7216439563412</v>
       </c>
       <c r="Q20" t="n">
-        <v>215.3160137953622</v>
+        <v>215.3160137953623</v>
       </c>
       <c r="R20" t="n">
         <v>125.2477184111579</v>
@@ -32502,7 +32502,7 @@
         <v>45.43541493314645</v>
       </c>
       <c r="T20" t="n">
-        <v>8.728185578490333</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U20" t="n">
         <v>0.1595099591728672</v>
@@ -32560,19 +32560,19 @@
         <v>231.6349594990724</v>
       </c>
       <c r="M21" t="n">
-        <v>270.3070722202082</v>
+        <v>270.3070722202083</v>
       </c>
       <c r="N21" t="n">
         <v>277.4612960980809</v>
       </c>
       <c r="O21" t="n">
-        <v>253.8228794656333</v>
+        <v>253.8228794656334</v>
       </c>
       <c r="P21" t="n">
         <v>203.7152381915082</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.1782418192304</v>
+        <v>136.1782418192305</v>
       </c>
       <c r="R21" t="n">
         <v>66.23622839448278</v>
@@ -32581,7 +32581,7 @@
         <v>19.81565606461107</v>
       </c>
       <c r="T21" t="n">
-        <v>4.300020761128117</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U21" t="n">
         <v>0.07018532254289642</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.894383454481062</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H22" t="n">
-        <v>7.951881986204357</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I22" t="n">
-        <v>26.89654970384867</v>
+        <v>26.89654970384868</v>
       </c>
       <c r="J22" t="n">
-        <v>63.23291023181108</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K22" t="n">
         <v>103.9110958933452</v>
       </c>
       <c r="L22" t="n">
-        <v>132.9704274053026</v>
+        <v>132.9704274053027</v>
       </c>
       <c r="M22" t="n">
         <v>140.198671869245</v>
@@ -32651,7 +32651,7 @@
         <v>108.1716134401459</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.8924181747733</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R22" t="n">
         <v>40.21473241693938</v>
@@ -32663,7 +32663,7 @@
         <v>3.821456578237264</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04878455206260344</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.99387448966084</v>
+        <v>1.993874489660841</v>
       </c>
       <c r="H23" t="n">
         <v>20.41976711723909</v>
       </c>
       <c r="I23" t="n">
-        <v>76.86884626264963</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J23" t="n">
         <v>169.2276049668519</v>
@@ -32718,7 +32718,7 @@
         <v>314.6483485271534</v>
       </c>
       <c r="M23" t="n">
-        <v>350.1069139826593</v>
+        <v>350.1069139826594</v>
       </c>
       <c r="N23" t="n">
         <v>355.7720098764082</v>
@@ -32730,7 +32730,7 @@
         <v>286.7216439563412</v>
       </c>
       <c r="Q23" t="n">
-        <v>215.3160137953622</v>
+        <v>215.3160137953623</v>
       </c>
       <c r="R23" t="n">
         <v>125.2477184111579</v>
@@ -32739,7 +32739,7 @@
         <v>45.43541493314645</v>
       </c>
       <c r="T23" t="n">
-        <v>8.728185578490333</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U23" t="n">
         <v>0.1595099591728672</v>
@@ -32797,19 +32797,19 @@
         <v>231.6349594990724</v>
       </c>
       <c r="M24" t="n">
-        <v>270.3070722202082</v>
+        <v>270.3070722202083</v>
       </c>
       <c r="N24" t="n">
         <v>277.4612960980809</v>
       </c>
       <c r="O24" t="n">
-        <v>253.8228794656333</v>
+        <v>253.8228794656334</v>
       </c>
       <c r="P24" t="n">
         <v>203.7152381915082</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1782418192304</v>
+        <v>136.1782418192305</v>
       </c>
       <c r="R24" t="n">
         <v>66.23622839448278</v>
@@ -32818,7 +32818,7 @@
         <v>19.81565606461107</v>
       </c>
       <c r="T24" t="n">
-        <v>4.300020761128117</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U24" t="n">
         <v>0.07018532254289642</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.894383454481062</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H25" t="n">
-        <v>7.951881986204357</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I25" t="n">
-        <v>26.89654970384867</v>
+        <v>26.89654970384868</v>
       </c>
       <c r="J25" t="n">
-        <v>63.23291023181108</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K25" t="n">
         <v>103.9110958933452</v>
       </c>
       <c r="L25" t="n">
-        <v>132.9704274053026</v>
+        <v>132.9704274053027</v>
       </c>
       <c r="M25" t="n">
         <v>140.198671869245</v>
@@ -32888,7 +32888,7 @@
         <v>108.1716134401459</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.8924181747733</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R25" t="n">
         <v>40.21473241693938</v>
@@ -32900,7 +32900,7 @@
         <v>3.821456578237264</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04878455206260344</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.99387448966084</v>
+        <v>1.993874489660841</v>
       </c>
       <c r="H26" t="n">
         <v>20.41976711723909</v>
       </c>
       <c r="I26" t="n">
-        <v>76.86884626264963</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J26" t="n">
         <v>169.2276049668519</v>
@@ -32955,7 +32955,7 @@
         <v>314.6483485271534</v>
       </c>
       <c r="M26" t="n">
-        <v>350.1069139826593</v>
+        <v>350.1069139826594</v>
       </c>
       <c r="N26" t="n">
         <v>355.7720098764082</v>
@@ -32967,7 +32967,7 @@
         <v>286.7216439563412</v>
       </c>
       <c r="Q26" t="n">
-        <v>215.3160137953622</v>
+        <v>215.3160137953623</v>
       </c>
       <c r="R26" t="n">
         <v>125.2477184111579</v>
@@ -32976,7 +32976,7 @@
         <v>45.43541493314645</v>
       </c>
       <c r="T26" t="n">
-        <v>8.728185578490333</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U26" t="n">
         <v>0.1595099591728672</v>
@@ -33034,19 +33034,19 @@
         <v>231.6349594990724</v>
       </c>
       <c r="M27" t="n">
-        <v>270.3070722202082</v>
+        <v>270.3070722202083</v>
       </c>
       <c r="N27" t="n">
         <v>277.4612960980809</v>
       </c>
       <c r="O27" t="n">
-        <v>253.8228794656333</v>
+        <v>253.8228794656334</v>
       </c>
       <c r="P27" t="n">
         <v>203.7152381915082</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1782418192304</v>
+        <v>136.1782418192305</v>
       </c>
       <c r="R27" t="n">
         <v>66.23622839448278</v>
@@ -33055,7 +33055,7 @@
         <v>19.81565606461107</v>
       </c>
       <c r="T27" t="n">
-        <v>4.300020761128117</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U27" t="n">
         <v>0.07018532254289642</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.894383454481062</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H28" t="n">
-        <v>7.951881986204357</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I28" t="n">
-        <v>26.89654970384867</v>
+        <v>26.89654970384868</v>
       </c>
       <c r="J28" t="n">
-        <v>63.23291023181108</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K28" t="n">
         <v>103.9110958933452</v>
       </c>
       <c r="L28" t="n">
-        <v>132.9704274053026</v>
+        <v>132.9704274053027</v>
       </c>
       <c r="M28" t="n">
         <v>140.198671869245</v>
@@ -33125,7 +33125,7 @@
         <v>108.1716134401459</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.8924181747733</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R28" t="n">
         <v>40.21473241693938</v>
@@ -33137,7 +33137,7 @@
         <v>3.821456578237264</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04878455206260344</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.99387448966084</v>
+        <v>1.993874489660841</v>
       </c>
       <c r="H29" t="n">
         <v>20.41976711723909</v>
       </c>
       <c r="I29" t="n">
-        <v>76.86884626264963</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J29" t="n">
         <v>169.2276049668519</v>
@@ -33192,7 +33192,7 @@
         <v>314.6483485271534</v>
       </c>
       <c r="M29" t="n">
-        <v>350.1069139826593</v>
+        <v>350.1069139826594</v>
       </c>
       <c r="N29" t="n">
         <v>355.7720098764082</v>
@@ -33204,7 +33204,7 @@
         <v>286.7216439563412</v>
       </c>
       <c r="Q29" t="n">
-        <v>215.3160137953622</v>
+        <v>215.3160137953623</v>
       </c>
       <c r="R29" t="n">
         <v>125.2477184111579</v>
@@ -33213,7 +33213,7 @@
         <v>45.43541493314645</v>
       </c>
       <c r="T29" t="n">
-        <v>8.728185578490333</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U29" t="n">
         <v>0.1595099591728672</v>
@@ -33271,19 +33271,19 @@
         <v>231.6349594990724</v>
       </c>
       <c r="M30" t="n">
-        <v>270.3070722202082</v>
+        <v>270.3070722202083</v>
       </c>
       <c r="N30" t="n">
         <v>277.4612960980809</v>
       </c>
       <c r="O30" t="n">
-        <v>253.8228794656333</v>
+        <v>253.8228794656334</v>
       </c>
       <c r="P30" t="n">
         <v>203.7152381915082</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1782418192304</v>
+        <v>136.1782418192305</v>
       </c>
       <c r="R30" t="n">
         <v>66.23622839448278</v>
@@ -33292,7 +33292,7 @@
         <v>19.81565606461107</v>
       </c>
       <c r="T30" t="n">
-        <v>4.300020761128117</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U30" t="n">
         <v>0.07018532254289642</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.894383454481062</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H31" t="n">
-        <v>7.951881986204357</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I31" t="n">
-        <v>26.89654970384867</v>
+        <v>26.89654970384868</v>
       </c>
       <c r="J31" t="n">
-        <v>63.23291023181108</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K31" t="n">
         <v>103.9110958933452</v>
       </c>
       <c r="L31" t="n">
-        <v>132.9704274053026</v>
+        <v>132.9704274053027</v>
       </c>
       <c r="M31" t="n">
         <v>140.198671869245</v>
@@ -33362,7 +33362,7 @@
         <v>108.1716134401459</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.8924181747733</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R31" t="n">
         <v>40.21473241693938</v>
@@ -33374,7 +33374,7 @@
         <v>3.821456578237264</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04878455206260344</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.99387448966084</v>
+        <v>1.993874489660841</v>
       </c>
       <c r="H32" t="n">
         <v>20.41976711723909</v>
       </c>
       <c r="I32" t="n">
-        <v>76.86884626264963</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J32" t="n">
         <v>169.2276049668519</v>
@@ -33429,7 +33429,7 @@
         <v>314.6483485271534</v>
       </c>
       <c r="M32" t="n">
-        <v>350.1069139826593</v>
+        <v>350.1069139826594</v>
       </c>
       <c r="N32" t="n">
         <v>355.7720098764082</v>
@@ -33441,7 +33441,7 @@
         <v>286.7216439563412</v>
       </c>
       <c r="Q32" t="n">
-        <v>215.3160137953622</v>
+        <v>215.3160137953623</v>
       </c>
       <c r="R32" t="n">
         <v>125.2477184111579</v>
@@ -33450,7 +33450,7 @@
         <v>45.43541493314645</v>
       </c>
       <c r="T32" t="n">
-        <v>8.728185578490333</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U32" t="n">
         <v>0.1595099591728672</v>
@@ -33508,19 +33508,19 @@
         <v>231.6349594990724</v>
       </c>
       <c r="M33" t="n">
-        <v>270.3070722202082</v>
+        <v>270.3070722202083</v>
       </c>
       <c r="N33" t="n">
         <v>277.4612960980809</v>
       </c>
       <c r="O33" t="n">
-        <v>253.8228794656333</v>
+        <v>253.8228794656334</v>
       </c>
       <c r="P33" t="n">
         <v>203.7152381915082</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1782418192304</v>
+        <v>136.1782418192305</v>
       </c>
       <c r="R33" t="n">
         <v>66.23622839448278</v>
@@ -33529,7 +33529,7 @@
         <v>19.81565606461107</v>
       </c>
       <c r="T33" t="n">
-        <v>4.300020761128117</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U33" t="n">
         <v>0.07018532254289642</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.894383454481062</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H34" t="n">
-        <v>7.951881986204357</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I34" t="n">
-        <v>26.89654970384867</v>
+        <v>26.89654970384868</v>
       </c>
       <c r="J34" t="n">
-        <v>63.23291023181108</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K34" t="n">
         <v>103.9110958933452</v>
       </c>
       <c r="L34" t="n">
-        <v>132.9704274053026</v>
+        <v>132.9704274053027</v>
       </c>
       <c r="M34" t="n">
         <v>140.198671869245</v>
@@ -33599,7 +33599,7 @@
         <v>108.1716134401459</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.8924181747733</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R34" t="n">
         <v>40.21473241693938</v>
@@ -33611,7 +33611,7 @@
         <v>3.821456578237264</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04878455206260344</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.99387448966084</v>
+        <v>1.993874489660841</v>
       </c>
       <c r="H35" t="n">
         <v>20.41976711723909</v>
       </c>
       <c r="I35" t="n">
-        <v>76.86884626264963</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J35" t="n">
         <v>169.2276049668519</v>
@@ -33666,7 +33666,7 @@
         <v>314.6483485271534</v>
       </c>
       <c r="M35" t="n">
-        <v>350.1069139826593</v>
+        <v>350.1069139826594</v>
       </c>
       <c r="N35" t="n">
         <v>355.7720098764082</v>
@@ -33678,7 +33678,7 @@
         <v>286.7216439563412</v>
       </c>
       <c r="Q35" t="n">
-        <v>215.3160137953622</v>
+        <v>215.3160137953623</v>
       </c>
       <c r="R35" t="n">
         <v>125.2477184111579</v>
@@ -33687,7 +33687,7 @@
         <v>45.43541493314645</v>
       </c>
       <c r="T35" t="n">
-        <v>8.728185578490333</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U35" t="n">
         <v>0.1595099591728672</v>
@@ -33745,19 +33745,19 @@
         <v>231.6349594990724</v>
       </c>
       <c r="M36" t="n">
-        <v>270.3070722202082</v>
+        <v>270.3070722202083</v>
       </c>
       <c r="N36" t="n">
         <v>277.4612960980809</v>
       </c>
       <c r="O36" t="n">
-        <v>253.8228794656333</v>
+        <v>253.8228794656334</v>
       </c>
       <c r="P36" t="n">
         <v>203.7152381915082</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1782418192304</v>
+        <v>136.1782418192305</v>
       </c>
       <c r="R36" t="n">
         <v>66.23622839448278</v>
@@ -33766,7 +33766,7 @@
         <v>19.81565606461107</v>
       </c>
       <c r="T36" t="n">
-        <v>4.300020761128117</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U36" t="n">
         <v>0.07018532254289642</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.894383454481062</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H37" t="n">
-        <v>7.951881986204357</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I37" t="n">
-        <v>26.89654970384867</v>
+        <v>26.89654970384868</v>
       </c>
       <c r="J37" t="n">
-        <v>63.23291023181108</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K37" t="n">
         <v>103.9110958933452</v>
       </c>
       <c r="L37" t="n">
-        <v>132.9704274053026</v>
+        <v>132.9704274053027</v>
       </c>
       <c r="M37" t="n">
         <v>140.198671869245</v>
@@ -33836,7 +33836,7 @@
         <v>108.1716134401459</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.8924181747733</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R37" t="n">
         <v>40.21473241693938</v>
@@ -33848,7 +33848,7 @@
         <v>3.821456578237264</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04878455206260344</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.99387448966084</v>
+        <v>1.993874489660841</v>
       </c>
       <c r="H38" t="n">
         <v>20.41976711723909</v>
       </c>
       <c r="I38" t="n">
-        <v>76.86884626264963</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J38" t="n">
         <v>169.2276049668519</v>
@@ -33903,7 +33903,7 @@
         <v>314.6483485271534</v>
       </c>
       <c r="M38" t="n">
-        <v>350.1069139826593</v>
+        <v>350.1069139826594</v>
       </c>
       <c r="N38" t="n">
         <v>355.7720098764082</v>
@@ -33915,7 +33915,7 @@
         <v>286.7216439563412</v>
       </c>
       <c r="Q38" t="n">
-        <v>215.3160137953622</v>
+        <v>215.3160137953623</v>
       </c>
       <c r="R38" t="n">
         <v>125.2477184111579</v>
@@ -33924,7 +33924,7 @@
         <v>45.43541493314645</v>
       </c>
       <c r="T38" t="n">
-        <v>8.728185578490333</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U38" t="n">
         <v>0.1595099591728672</v>
@@ -33982,19 +33982,19 @@
         <v>231.6349594990724</v>
       </c>
       <c r="M39" t="n">
-        <v>270.3070722202082</v>
+        <v>270.3070722202083</v>
       </c>
       <c r="N39" t="n">
         <v>277.4612960980809</v>
       </c>
       <c r="O39" t="n">
-        <v>253.8228794656333</v>
+        <v>253.8228794656334</v>
       </c>
       <c r="P39" t="n">
         <v>203.7152381915082</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1782418192304</v>
+        <v>136.1782418192305</v>
       </c>
       <c r="R39" t="n">
         <v>66.23622839448278</v>
@@ -34003,7 +34003,7 @@
         <v>19.81565606461107</v>
       </c>
       <c r="T39" t="n">
-        <v>4.300020761128117</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U39" t="n">
         <v>0.07018532254289642</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.894383454481062</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H40" t="n">
-        <v>7.951881986204357</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I40" t="n">
-        <v>26.89654970384867</v>
+        <v>26.89654970384868</v>
       </c>
       <c r="J40" t="n">
-        <v>63.23291023181108</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K40" t="n">
         <v>103.9110958933452</v>
       </c>
       <c r="L40" t="n">
-        <v>132.9704274053026</v>
+        <v>132.9704274053027</v>
       </c>
       <c r="M40" t="n">
         <v>140.198671869245</v>
@@ -34073,7 +34073,7 @@
         <v>108.1716134401459</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.8924181747733</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R40" t="n">
         <v>40.21473241693938</v>
@@ -34085,7 +34085,7 @@
         <v>3.821456578237264</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04878455206260344</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.99387448966084</v>
+        <v>1.993874489660841</v>
       </c>
       <c r="H41" t="n">
         <v>20.41976711723909</v>
       </c>
       <c r="I41" t="n">
-        <v>76.86884626264963</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J41" t="n">
         <v>169.2276049668519</v>
@@ -34140,7 +34140,7 @@
         <v>314.6483485271534</v>
       </c>
       <c r="M41" t="n">
-        <v>350.1069139826593</v>
+        <v>350.1069139826594</v>
       </c>
       <c r="N41" t="n">
         <v>355.7720098764082</v>
@@ -34152,7 +34152,7 @@
         <v>286.7216439563412</v>
       </c>
       <c r="Q41" t="n">
-        <v>215.3160137953622</v>
+        <v>215.3160137953623</v>
       </c>
       <c r="R41" t="n">
         <v>125.2477184111579</v>
@@ -34161,7 +34161,7 @@
         <v>45.43541493314645</v>
       </c>
       <c r="T41" t="n">
-        <v>8.728185578490333</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U41" t="n">
         <v>0.1595099591728672</v>
@@ -34219,19 +34219,19 @@
         <v>231.6349594990724</v>
       </c>
       <c r="M42" t="n">
-        <v>270.3070722202082</v>
+        <v>270.3070722202083</v>
       </c>
       <c r="N42" t="n">
         <v>277.4612960980809</v>
       </c>
       <c r="O42" t="n">
-        <v>253.8228794656333</v>
+        <v>253.8228794656334</v>
       </c>
       <c r="P42" t="n">
         <v>203.7152381915082</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1782418192304</v>
+        <v>136.1782418192305</v>
       </c>
       <c r="R42" t="n">
         <v>66.23622839448278</v>
@@ -34240,7 +34240,7 @@
         <v>19.81565606461107</v>
       </c>
       <c r="T42" t="n">
-        <v>4.300020761128117</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U42" t="n">
         <v>0.07018532254289642</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.894383454481062</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H43" t="n">
-        <v>7.951881986204357</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I43" t="n">
-        <v>26.89654970384867</v>
+        <v>26.89654970384868</v>
       </c>
       <c r="J43" t="n">
-        <v>63.23291023181108</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K43" t="n">
         <v>103.9110958933452</v>
       </c>
       <c r="L43" t="n">
-        <v>132.9704274053026</v>
+        <v>132.9704274053027</v>
       </c>
       <c r="M43" t="n">
         <v>140.198671869245</v>
@@ -34310,7 +34310,7 @@
         <v>108.1716134401459</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.8924181747733</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R43" t="n">
         <v>40.21473241693938</v>
@@ -34322,7 +34322,7 @@
         <v>3.821456578237264</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04878455206260344</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.99387448966084</v>
+        <v>1.993874489660841</v>
       </c>
       <c r="H44" t="n">
         <v>20.41976711723909</v>
       </c>
       <c r="I44" t="n">
-        <v>76.86884626264963</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J44" t="n">
         <v>169.2276049668519</v>
@@ -34377,7 +34377,7 @@
         <v>314.6483485271534</v>
       </c>
       <c r="M44" t="n">
-        <v>350.1069139826593</v>
+        <v>350.1069139826594</v>
       </c>
       <c r="N44" t="n">
         <v>355.7720098764082</v>
@@ -34389,7 +34389,7 @@
         <v>286.7216439563412</v>
       </c>
       <c r="Q44" t="n">
-        <v>215.3160137953622</v>
+        <v>215.3160137953623</v>
       </c>
       <c r="R44" t="n">
         <v>125.2477184111579</v>
@@ -34398,7 +34398,7 @@
         <v>45.43541493314645</v>
       </c>
       <c r="T44" t="n">
-        <v>8.728185578490333</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U44" t="n">
         <v>0.1595099591728672</v>
@@ -34456,19 +34456,19 @@
         <v>231.6349594990724</v>
       </c>
       <c r="M45" t="n">
-        <v>270.3070722202082</v>
+        <v>270.3070722202083</v>
       </c>
       <c r="N45" t="n">
         <v>277.4612960980809</v>
       </c>
       <c r="O45" t="n">
-        <v>253.8228794656333</v>
+        <v>253.8228794656334</v>
       </c>
       <c r="P45" t="n">
         <v>203.7152381915082</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1782418192304</v>
+        <v>136.1782418192305</v>
       </c>
       <c r="R45" t="n">
         <v>66.23622839448278</v>
@@ -34477,7 +34477,7 @@
         <v>19.81565606461107</v>
       </c>
       <c r="T45" t="n">
-        <v>4.300020761128117</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U45" t="n">
         <v>0.07018532254289642</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.894383454481062</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H46" t="n">
-        <v>7.951881986204357</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I46" t="n">
-        <v>26.89654970384867</v>
+        <v>26.89654970384868</v>
       </c>
       <c r="J46" t="n">
-        <v>63.23291023181108</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K46" t="n">
         <v>103.9110958933452</v>
       </c>
       <c r="L46" t="n">
-        <v>132.9704274053026</v>
+        <v>132.9704274053027</v>
       </c>
       <c r="M46" t="n">
         <v>140.198671869245</v>
@@ -34547,7 +34547,7 @@
         <v>108.1716134401459</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.8924181747733</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R46" t="n">
         <v>40.21473241693938</v>
@@ -34559,7 +34559,7 @@
         <v>3.821456578237264</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04878455206260344</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>95.90401363354397</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K11" t="n">
-        <v>164.4919224409782</v>
+        <v>246.0591418807473</v>
       </c>
       <c r="L11" t="n">
         <v>219.1629504643086</v>
@@ -35427,13 +35427,13 @@
         <v>242.7556447940601</v>
       </c>
       <c r="P11" t="n">
-        <v>193.072280675457</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q11" t="n">
-        <v>408.6475700598058</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R11" t="n">
-        <v>166.2140271884961</v>
+        <v>37.93557559643438</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>295.5512643775801</v>
       </c>
       <c r="K12" t="n">
-        <v>507.6085637048551</v>
+        <v>116.4417518861724</v>
       </c>
       <c r="L12" t="n">
-        <v>232.4581295725036</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M12" t="n">
-        <v>212.7427884817908</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N12" t="n">
-        <v>224.2679027043309</v>
+        <v>360.8352451680719</v>
       </c>
       <c r="O12" t="n">
-        <v>196.0714004656334</v>
+        <v>507.608563704855</v>
       </c>
       <c r="P12" t="n">
         <v>149.4556031887045</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.48562331439172</v>
+        <v>79.48562331439174</v>
       </c>
       <c r="R12" t="n">
         <v>96.0943287607756</v>
@@ -35573,22 +35573,22 @@
         <v>260.0245582390401</v>
       </c>
       <c r="L13" t="n">
-        <v>395.4927509205153</v>
+        <v>237.4437763496683</v>
       </c>
       <c r="M13" t="n">
-        <v>138.3522560592185</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N13" t="n">
         <v>420.5405985836039</v>
       </c>
       <c r="O13" t="n">
-        <v>388.5994705847658</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9245833892493</v>
+        <v>52.3917718002411</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.53289251484773</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>379.2693742971398</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K14" t="n">
-        <v>164.4919224409782</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L14" t="n">
         <v>219.1629504643086</v>
@@ -35664,13 +35664,13 @@
         <v>242.7556447940601</v>
       </c>
       <c r="P14" t="n">
-        <v>193.072280675457</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q14" t="n">
         <v>125.2822093962102</v>
       </c>
       <c r="R14" t="n">
-        <v>166.2140271884961</v>
+        <v>119.5027950362033</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>295.5512643775801</v>
       </c>
       <c r="K15" t="n">
-        <v>116.4417518861724</v>
+        <v>154.4753919287575</v>
       </c>
       <c r="L15" t="n">
-        <v>213.5540757308086</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M15" t="n">
-        <v>212.7427884817908</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N15" t="n">
         <v>224.2679027043309</v>
@@ -35807,25 +35807,25 @@
         <v>77.45770761081161</v>
       </c>
       <c r="K16" t="n">
-        <v>229.5250384215641</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L16" t="n">
-        <v>395.4927509205153</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M16" t="n">
-        <v>432.3845874657029</v>
+        <v>346.1909845862371</v>
       </c>
       <c r="N16" t="n">
-        <v>420.5405985836039</v>
+        <v>85.15241530321445</v>
       </c>
       <c r="O16" t="n">
-        <v>388.5994705847658</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P16" t="n">
-        <v>52.39177180024108</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.53289251484773</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>379.2693742971398</v>
+        <v>95.904013633544</v>
       </c>
       <c r="K17" t="n">
-        <v>164.4919224409782</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L17" t="n">
-        <v>219.1629504643086</v>
+        <v>237.675392217109</v>
       </c>
       <c r="M17" t="n">
         <v>256.8166895256139</v>
@@ -35898,10 +35898,10 @@
         <v>262.8597191197889</v>
       </c>
       <c r="O17" t="n">
-        <v>242.7556447940601</v>
+        <v>507.608563704855</v>
       </c>
       <c r="P17" t="n">
-        <v>193.072280675457</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q17" t="n">
         <v>125.2822093962102</v>
@@ -35965,13 +35965,13 @@
         <v>295.5512643775801</v>
       </c>
       <c r="K18" t="n">
-        <v>154.4753919287577</v>
+        <v>154.4753919287575</v>
       </c>
       <c r="L18" t="n">
-        <v>175.5204356882233</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M18" t="n">
-        <v>212.7427884817908</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N18" t="n">
         <v>224.2679027043309</v>
@@ -36044,25 +36044,25 @@
         <v>77.45770761081161</v>
       </c>
       <c r="K19" t="n">
-        <v>101.9755836681934</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L19" t="n">
-        <v>395.4927509205153</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M19" t="n">
-        <v>432.3845874657029</v>
+        <v>401.8850676482265</v>
       </c>
       <c r="N19" t="n">
         <v>420.5405985836039</v>
       </c>
       <c r="O19" t="n">
-        <v>388.5994705847658</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P19" t="n">
-        <v>52.39177180024108</v>
+        <v>52.3917718002411</v>
       </c>
       <c r="Q19" t="n">
-        <v>141.0823472682186</v>
+        <v>13.53289251484775</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>379.2693742971396</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K20" t="n">
-        <v>164.4919224409782</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L20" t="n">
         <v>219.1629504643086</v>
@@ -36138,13 +36138,13 @@
         <v>242.7556447940601</v>
       </c>
       <c r="P20" t="n">
-        <v>193.072280675457</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q20" t="n">
-        <v>125.2822093962102</v>
+        <v>206.8494288359792</v>
       </c>
       <c r="R20" t="n">
-        <v>166.2140271884961</v>
+        <v>37.93557559643438</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>16.18921333148689</v>
       </c>
       <c r="J21" t="n">
-        <v>49.42156339310207</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K21" t="n">
-        <v>489.4633923849341</v>
+        <v>507.608563704855</v>
       </c>
       <c r="L21" t="n">
-        <v>175.5204356882233</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M21" t="n">
-        <v>212.7427884817908</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N21" t="n">
         <v>224.2679027043309</v>
@@ -36217,13 +36217,13 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P21" t="n">
-        <v>149.4556031887045</v>
+        <v>206.3932970729843</v>
       </c>
       <c r="Q21" t="n">
-        <v>489.5564889747692</v>
+        <v>79.48562331439174</v>
       </c>
       <c r="R21" t="n">
-        <v>7.236029289077372</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>77.45770761081161</v>
       </c>
       <c r="K22" t="n">
-        <v>51.66072633427835</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L22" t="n">
-        <v>395.4927509205153</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M22" t="n">
         <v>432.3845874657029</v>
       </c>
       <c r="N22" t="n">
-        <v>420.5405985836039</v>
+        <v>85.15241530321445</v>
       </c>
       <c r="O22" t="n">
-        <v>388.5994705847658</v>
+        <v>302.4058677053001</v>
       </c>
       <c r="P22" t="n">
-        <v>102.7066291341558</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q22" t="n">
         <v>141.0823472682186</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>425.980606449432</v>
+        <v>95.904013633544</v>
       </c>
       <c r="K23" t="n">
-        <v>164.4919224409782</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L23" t="n">
         <v>219.1629504643086</v>
@@ -36369,16 +36369,16 @@
         <v>256.8166895256139</v>
       </c>
       <c r="N23" t="n">
-        <v>614.0794739850224</v>
+        <v>553.3680041751054</v>
       </c>
       <c r="O23" t="n">
         <v>242.7556447940601</v>
       </c>
       <c r="P23" t="n">
-        <v>193.072280675457</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q23" t="n">
-        <v>148.933008538539</v>
+        <v>539.721071164344</v>
       </c>
       <c r="R23" t="n">
         <v>166.2140271884961</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J24" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K24" t="n">
-        <v>259.5229047319424</v>
+        <v>154.4753919287569</v>
       </c>
       <c r="L24" t="n">
-        <v>175.5204356882233</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M24" t="n">
-        <v>212.7427884817908</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N24" t="n">
         <v>224.2679027043309</v>
@@ -36460,7 +36460,7 @@
         <v>489.5564889747692</v>
       </c>
       <c r="R24" t="n">
-        <v>7.236029289077372</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>260.0245582390401</v>
       </c>
       <c r="L25" t="n">
-        <v>395.4927509205153</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M25" t="n">
         <v>432.3845874657029</v>
@@ -36530,7 +36530,7 @@
         <v>420.5405985836039</v>
       </c>
       <c r="O25" t="n">
-        <v>388.5994705847658</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P25" t="n">
         <v>315.9245833892493</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>95.90401363354397</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K26" t="n">
-        <v>164.4919224409782</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L26" t="n">
-        <v>614.0794739850224</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M26" t="n">
         <v>256.8166895256139</v>
       </c>
       <c r="N26" t="n">
-        <v>614.0794739850224</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O26" t="n">
         <v>242.7556447940601</v>
       </c>
       <c r="P26" t="n">
-        <v>193.072280675457</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q26" t="n">
-        <v>125.2822093962102</v>
+        <v>500.1527634037727</v>
       </c>
       <c r="R26" t="n">
-        <v>125.024895625999</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J27" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K27" t="n">
-        <v>170.664605260244</v>
+        <v>154.4753919287569</v>
       </c>
       <c r="L27" t="n">
-        <v>175.5204356882233</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M27" t="n">
-        <v>212.7427884817908</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N27" t="n">
         <v>224.2679027043309</v>
@@ -36758,7 +36758,7 @@
         <v>260.0245582390401</v>
       </c>
       <c r="L28" t="n">
-        <v>395.4927509205153</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M28" t="n">
         <v>432.3845874657029</v>
@@ -36767,7 +36767,7 @@
         <v>420.5405985836039</v>
       </c>
       <c r="O28" t="n">
-        <v>388.5994705847658</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P28" t="n">
         <v>315.9245833892493</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>425.980606449432</v>
+        <v>405.9346369362802</v>
       </c>
       <c r="K29" t="n">
-        <v>164.4919224409782</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L29" t="n">
-        <v>219.1629504643086</v>
+        <v>614.0794739850226</v>
       </c>
       <c r="M29" t="n">
         <v>256.8166895256139</v>
@@ -36849,10 +36849,10 @@
         <v>242.7556447940601</v>
       </c>
       <c r="P29" t="n">
-        <v>193.072280675457</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q29" t="n">
-        <v>500.1527634037722</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R29" t="n">
         <v>166.2140271884961</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J30" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K30" t="n">
-        <v>116.4417518861724</v>
+        <v>154.4753919287569</v>
       </c>
       <c r="L30" t="n">
-        <v>175.5204356882233</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M30" t="n">
-        <v>212.7427884817908</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N30" t="n">
         <v>224.2679027043309</v>
       </c>
       <c r="O30" t="n">
-        <v>614.0794739850224</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P30" t="n">
         <v>149.4556031887045</v>
       </c>
       <c r="Q30" t="n">
-        <v>125.7712688294518</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R30" t="n">
         <v>96.0943287607756</v>
@@ -36995,7 +36995,7 @@
         <v>260.0245582390401</v>
       </c>
       <c r="L31" t="n">
-        <v>395.4927509205153</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M31" t="n">
         <v>432.3845874657029</v>
@@ -37004,7 +37004,7 @@
         <v>420.5405985836039</v>
       </c>
       <c r="O31" t="n">
-        <v>388.5994705847658</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P31" t="n">
         <v>315.9245833892493</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>95.90401363354397</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K32" t="n">
-        <v>164.4919224409782</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L32" t="n">
-        <v>614.0794739850224</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M32" t="n">
         <v>256.8166895256139</v>
@@ -37083,16 +37083,16 @@
         <v>262.8597191197889</v>
       </c>
       <c r="O32" t="n">
-        <v>614.0794739850224</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P32" t="n">
-        <v>193.072280675457</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q32" t="n">
-        <v>125.2822093962102</v>
+        <v>500.1527634037727</v>
       </c>
       <c r="R32" t="n">
-        <v>104.9208213002703</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J33" t="n">
-        <v>49.42156339310207</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K33" t="n">
-        <v>116.4417518861724</v>
+        <v>154.4753919287569</v>
       </c>
       <c r="L33" t="n">
-        <v>175.5204356882233</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M33" t="n">
-        <v>212.7427884817908</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N33" t="n">
         <v>224.2679027043309</v>
@@ -37165,13 +37165,13 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P33" t="n">
-        <v>614.0794739850224</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q33" t="n">
-        <v>414.1434720086994</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R33" t="n">
-        <v>7.236029289077372</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>260.0245582390401</v>
       </c>
       <c r="L34" t="n">
-        <v>395.4927509205153</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M34" t="n">
         <v>432.3845874657029</v>
@@ -37241,7 +37241,7 @@
         <v>420.5405985836039</v>
       </c>
       <c r="O34" t="n">
-        <v>388.5994705847658</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P34" t="n">
         <v>315.9245833892493</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.90401363354397</v>
+        <v>379.2693742971393</v>
       </c>
       <c r="K35" t="n">
-        <v>164.4919224409782</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L35" t="n">
         <v>219.1629504643086</v>
@@ -37323,7 +37323,7 @@
         <v>242.7556447940601</v>
       </c>
       <c r="P35" t="n">
-        <v>476.4376413390527</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q35" t="n">
         <v>125.2822093962102</v>
@@ -37384,16 +37384,16 @@
         <v>16.18921333148689</v>
       </c>
       <c r="J36" t="n">
-        <v>49.42156339310207</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K36" t="n">
         <v>116.4417518861724</v>
       </c>
       <c r="L36" t="n">
-        <v>175.5204356882233</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M36" t="n">
-        <v>212.7427884817908</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N36" t="n">
         <v>224.2679027043309</v>
@@ -37402,10 +37402,10 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P36" t="n">
-        <v>433.6189442157679</v>
+        <v>507.608563704855</v>
       </c>
       <c r="Q36" t="n">
-        <v>489.5564889747692</v>
+        <v>169.4371685012035</v>
       </c>
       <c r="R36" t="n">
         <v>96.0943287607756</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.95818779333563</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K37" t="n">
-        <v>260.0245582390401</v>
+        <v>101.9755836681931</v>
       </c>
       <c r="L37" t="n">
-        <v>395.4927509205153</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M37" t="n">
         <v>432.3845874657029</v>
@@ -37478,13 +37478,13 @@
         <v>420.5405985836039</v>
       </c>
       <c r="O37" t="n">
-        <v>388.5994705847658</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P37" t="n">
-        <v>52.39177180024108</v>
+        <v>52.3917718002411</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.53289251484773</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>379.2693742971398</v>
+        <v>95.904013633544</v>
       </c>
       <c r="K38" t="n">
-        <v>164.4919224409782</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L38" t="n">
-        <v>219.1629504643086</v>
+        <v>502.528311127904</v>
       </c>
       <c r="M38" t="n">
         <v>256.8166895256139</v>
@@ -37560,7 +37560,7 @@
         <v>242.7556447940601</v>
       </c>
       <c r="P38" t="n">
-        <v>193.072280675457</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q38" t="n">
         <v>125.2822093962102</v>
@@ -37624,13 +37624,13 @@
         <v>295.5512643775801</v>
       </c>
       <c r="K39" t="n">
-        <v>507.6085637048551</v>
+        <v>116.4417518861724</v>
       </c>
       <c r="L39" t="n">
-        <v>175.5204356882233</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M39" t="n">
-        <v>212.7427884817908</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N39" t="n">
         <v>224.2679027043309</v>
@@ -37639,10 +37639,10 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P39" t="n">
-        <v>149.4556031887045</v>
+        <v>187.4892432312895</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.423317198672</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R39" t="n">
         <v>96.0943287607756</v>
@@ -37703,22 +37703,22 @@
         <v>77.45770761081161</v>
       </c>
       <c r="K40" t="n">
-        <v>101.9755836681934</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L40" t="n">
-        <v>395.4927509205153</v>
+        <v>78.34213351140116</v>
       </c>
       <c r="M40" t="n">
         <v>432.3845874657029</v>
       </c>
       <c r="N40" t="n">
-        <v>420.5405985836039</v>
+        <v>316.1094298328628</v>
       </c>
       <c r="O40" t="n">
-        <v>388.5994705847658</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P40" t="n">
-        <v>52.39177180024108</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q40" t="n">
         <v>141.0823472682186</v>
@@ -37782,7 +37782,7 @@
         <v>425.980606449432</v>
       </c>
       <c r="K41" t="n">
-        <v>246.0591418807476</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L41" t="n">
         <v>219.1629504643086</v>
@@ -37797,13 +37797,13 @@
         <v>242.7556447940601</v>
       </c>
       <c r="P41" t="n">
-        <v>193.072280675457</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q41" t="n">
         <v>125.2822093962102</v>
       </c>
       <c r="R41" t="n">
-        <v>37.93557559643436</v>
+        <v>119.5027950362033</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>16.18921333148689</v>
       </c>
       <c r="J42" t="n">
-        <v>49.42156339310207</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K42" t="n">
-        <v>507.6085637048551</v>
+        <v>154.4753919287575</v>
       </c>
       <c r="L42" t="n">
-        <v>175.5204356882233</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M42" t="n">
-        <v>212.7427884817908</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N42" t="n">
         <v>224.2679027043309</v>
       </c>
       <c r="O42" t="n">
-        <v>507.6085637048551</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P42" t="n">
-        <v>229.8441342899395</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q42" t="n">
-        <v>79.48562331439172</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R42" t="n">
-        <v>7.236029289077372</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>77.45770761081161</v>
       </c>
       <c r="K43" t="n">
-        <v>260.0245582390401</v>
+        <v>101.9755836681931</v>
       </c>
       <c r="L43" t="n">
-        <v>395.4927509205153</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M43" t="n">
-        <v>138.3522560592185</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N43" t="n">
         <v>420.5405985836039</v>
       </c>
       <c r="O43" t="n">
-        <v>388.5994705847658</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9245833892493</v>
+        <v>52.3917718002411</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.53289251484773</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>379.2693742971396</v>
+        <v>379.2693742971393</v>
       </c>
       <c r="K44" t="n">
-        <v>164.4919224409782</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L44" t="n">
         <v>219.1629504643086</v>
@@ -38034,7 +38034,7 @@
         <v>242.7556447940601</v>
       </c>
       <c r="P44" t="n">
-        <v>193.072280675457</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q44" t="n">
         <v>125.2822093962102</v>
@@ -38095,28 +38095,28 @@
         <v>16.18921333148689</v>
       </c>
       <c r="J45" t="n">
-        <v>49.42156339310207</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K45" t="n">
-        <v>140.9858348182408</v>
+        <v>154.4753919287575</v>
       </c>
       <c r="L45" t="n">
-        <v>175.5204356882233</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M45" t="n">
-        <v>212.7427884817908</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N45" t="n">
         <v>224.2679027043309</v>
       </c>
       <c r="O45" t="n">
-        <v>507.608563704855</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P45" t="n">
-        <v>507.608563704855</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q45" t="n">
-        <v>79.48562331439172</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R45" t="n">
         <v>96.0943287607756</v>
@@ -38180,16 +38180,16 @@
         <v>260.0245582390401</v>
       </c>
       <c r="L46" t="n">
-        <v>395.4927509205153</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M46" t="n">
-        <v>83.93372937046496</v>
+        <v>346.1909845862371</v>
       </c>
       <c r="N46" t="n">
-        <v>347.4096705189865</v>
+        <v>85.15241530321445</v>
       </c>
       <c r="O46" t="n">
-        <v>388.5994705847658</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P46" t="n">
         <v>315.9245833892493</v>
